--- a/jmetal4.5/results/results.xlsx
+++ b/jmetal4.5/results/results.xlsx
@@ -696,526 +696,526 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="178"/>
                 <c:pt idx="0">
-                  <c:v>30393.348402218398</c:v>
+                  <c:v>10131.116134072799</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>30393.348402218398</c:v>
+                  <c:v>10131.116134072799</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>30373.739445270603</c:v>
+                  <c:v>10124.579815090201</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>30242.577159787499</c:v>
+                  <c:v>10080.8590532625</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>30235.16586116844</c:v>
+                  <c:v>10078.38862038948</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>30191.185872251637</c:v>
+                  <c:v>10063.72862408388</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>29861.081032645798</c:v>
+                  <c:v>9953.6936775485992</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>29838.390751062543</c:v>
+                  <c:v>9946.130250354181</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>29821.844997589498</c:v>
+                  <c:v>9940.6149991964994</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>29819.448137285461</c:v>
+                  <c:v>9939.8160457618196</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>29807.43694258554</c:v>
+                  <c:v>9935.8123141951801</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>29792.045639669403</c:v>
+                  <c:v>9930.6818798898003</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>29784.91364221356</c:v>
+                  <c:v>9928.3045474045193</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>29769.491389919582</c:v>
+                  <c:v>9923.1637966398594</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>29764.111374146702</c:v>
+                  <c:v>9921.3704580489011</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>29751.639939134635</c:v>
+                  <c:v>9917.2133130448801</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>29711.834750680198</c:v>
+                  <c:v>9903.9449168934007</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>29702.0906413515</c:v>
+                  <c:v>9900.6968804505013</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>29696.610823131417</c:v>
+                  <c:v>9898.8702743771391</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>29677.415422316404</c:v>
+                  <c:v>9892.4718074388002</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>29664.581096533679</c:v>
+                  <c:v>9888.1936988445595</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>29657.805317391241</c:v>
+                  <c:v>9885.9351057970798</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>29654.623841573339</c:v>
+                  <c:v>9884.874613857779</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>29646.496942173002</c:v>
+                  <c:v>9882.1656473910007</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>29638.917477761581</c:v>
+                  <c:v>9879.6391592538603</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>29627.790415088941</c:v>
+                  <c:v>9875.9301383629791</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>29614.0320390573</c:v>
+                  <c:v>9871.3440130191011</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>29604.068670852543</c:v>
+                  <c:v>9868.0228902841809</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>29596.060974375177</c:v>
+                  <c:v>9865.3536581250592</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>29562.93458990856</c:v>
+                  <c:v>9854.3115299695201</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>29548.636025696818</c:v>
+                  <c:v>9849.54534189894</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>29515.82022080748</c:v>
+                  <c:v>9838.6067402691588</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>29502.53941620042</c:v>
+                  <c:v>9834.179805400141</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>29495.097807035581</c:v>
+                  <c:v>9831.6992690118605</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>29468.888660962079</c:v>
+                  <c:v>9822.9628869873595</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>29460.393168412862</c:v>
+                  <c:v>9820.1310561376195</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>29441.475246601618</c:v>
+                  <c:v>9813.8250822005393</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>29429.979256485902</c:v>
+                  <c:v>9809.9930854953</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>29406.37491318168</c:v>
+                  <c:v>9802.1249710605607</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>29382.162431178596</c:v>
+                  <c:v>9794.0541437262</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>29363.75640158544</c:v>
+                  <c:v>9787.9188005284796</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>29353.146464932561</c:v>
+                  <c:v>9784.3821549775203</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>29340.996022912503</c:v>
+                  <c:v>9780.3320076375003</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>29324.307961917362</c:v>
+                  <c:v>9774.7693206391195</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>29315.752531648919</c:v>
+                  <c:v>9771.9175105496397</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>29306.519575428778</c:v>
+                  <c:v>9768.8398584762599</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>29303.087202567905</c:v>
+                  <c:v>9767.6957341893012</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>29281.618443316856</c:v>
+                  <c:v>9760.5394811056194</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>29268.982802643481</c:v>
+                  <c:v>9756.3276008811608</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>29261.546044955277</c:v>
+                  <c:v>9753.8486816517598</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>29227.989795555419</c:v>
+                  <c:v>9742.6632651851396</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>29210.468388335459</c:v>
+                  <c:v>9736.8227961118209</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>29176.825875842875</c:v>
+                  <c:v>9725.60862528096</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>29166.320735102159</c:v>
+                  <c:v>9722.1069117007191</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>29152.835379040862</c:v>
+                  <c:v>9717.6117930136206</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>29135.829988755897</c:v>
+                  <c:v>9711.9433295852996</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>29118.817537729381</c:v>
+                  <c:v>9706.2725125764591</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>29111.56254352476</c:v>
+                  <c:v>9703.8541811749201</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>29099.441585321641</c:v>
+                  <c:v>9699.8138617738805</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>29069.412774121443</c:v>
+                  <c:v>9689.8042580404799</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>29056.770185561822</c:v>
+                  <c:v>9685.5900618539399</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>29039.210551883159</c:v>
+                  <c:v>9679.7368506277198</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>29032.680580400342</c:v>
+                  <c:v>9677.5601934667811</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>28996.670820184921</c:v>
+                  <c:v>9665.5569400616387</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>28974.51883915002</c:v>
+                  <c:v>9658.1729463833399</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>28962.859958982543</c:v>
+                  <c:v>9654.2866529941803</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>28951.14769918632</c:v>
+                  <c:v>9650.3825663954412</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>28943.436408763679</c:v>
+                  <c:v>9647.8121362545589</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>28940.880858803099</c:v>
+                  <c:v>9646.9602862676984</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>28932.831664981739</c:v>
+                  <c:v>9644.277221660579</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>28906.787070068582</c:v>
+                  <c:v>9635.5956900228593</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>28875.97977005412</c:v>
+                  <c:v>9625.3265900180413</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>28858.003618990679</c:v>
+                  <c:v>9619.3345396635596</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>28854.366549382801</c:v>
+                  <c:v>9618.1221831276016</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>28840.272749409774</c:v>
+                  <c:v>9613.42424980326</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>28836.046493971196</c:v>
+                  <c:v>9612.0154979904</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>28824.032892879542</c:v>
+                  <c:v>9608.0109642931802</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>28821.508361093162</c:v>
+                  <c:v>9607.1694536977211</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>28797.348545945821</c:v>
+                  <c:v>9599.116181981939</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>28783.522311226559</c:v>
+                  <c:v>9594.507437075521</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>28775.98897419258</c:v>
+                  <c:v>9591.9963247308606</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>28757.968442189282</c:v>
+                  <c:v>9585.9894807297605</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>28742.008033564918</c:v>
+                  <c:v>9580.6693445216406</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>28728.830796372356</c:v>
+                  <c:v>9576.2769321241194</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>28718.412435070019</c:v>
+                  <c:v>9572.8041450233395</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>28694.194735741381</c:v>
+                  <c:v>9564.7315785804603</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>28676.463564636902</c:v>
+                  <c:v>9558.8211882122996</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>28674.862338192841</c:v>
+                  <c:v>9558.2874460642815</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>28663.83082744704</c:v>
+                  <c:v>9554.6102758156812</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>28649.061973204382</c:v>
+                  <c:v>9549.6873244014605</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>28621.919755491119</c:v>
+                  <c:v>9540.6399184970396</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>28587.029560699139</c:v>
+                  <c:v>9529.0098535663801</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>28574.863910316184</c:v>
+                  <c:v>9524.9546367720595</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>28559.546252825581</c:v>
+                  <c:v>9519.8487509418592</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>28554.1115946957</c:v>
+                  <c:v>9518.0371982319011</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>28520.479190116439</c:v>
+                  <c:v>9506.8263967054791</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>28515.558245067539</c:v>
+                  <c:v>9505.1860816891785</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>28495.56385290618</c:v>
+                  <c:v>9498.5212843020599</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>28477.9345523499</c:v>
+                  <c:v>9492.6448507832993</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>28449.434831941981</c:v>
+                  <c:v>9483.1449439806602</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>28431.149186178358</c:v>
+                  <c:v>9477.0497287261205</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>28427.017481164799</c:v>
+                  <c:v>9475.6724937215986</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>28426.776967314181</c:v>
+                  <c:v>9475.5923224380604</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>28403.021016752216</c:v>
+                  <c:v>9467.6736722507394</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>28374.677615926081</c:v>
+                  <c:v>9458.225871975359</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>28358.671647675241</c:v>
+                  <c:v>9452.8905492250815</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>28342.811832528598</c:v>
+                  <c:v>9447.6039441762005</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>28336.383513598499</c:v>
+                  <c:v>9445.4611711994985</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>28326.568560864478</c:v>
+                  <c:v>9442.1895202881606</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>28311.85925599284</c:v>
+                  <c:v>9437.2864186642801</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>28292.06096833284</c:v>
+                  <c:v>9430.6869894442807</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>28280.883632480098</c:v>
+                  <c:v>9426.9612108266992</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>28273.14081624258</c:v>
+                  <c:v>9424.3802720808599</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>28261.872550580585</c:v>
+                  <c:v>9420.6241835268611</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>28231.445365157881</c:v>
+                  <c:v>9410.4817883859596</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>28213.647327133203</c:v>
+                  <c:v>9404.5491090444011</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>28202.645148016141</c:v>
+                  <c:v>9400.8817160053804</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>28185.346816674657</c:v>
+                  <c:v>9395.1156055582196</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>28175.329503816836</c:v>
+                  <c:v>9391.7765012722793</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>28162.943493591956</c:v>
+                  <c:v>9387.6478311973187</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>28160.416710695343</c:v>
+                  <c:v>9386.8055702317797</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>28149.190641061199</c:v>
+                  <c:v>9383.0635470203997</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>28133.987272687078</c:v>
+                  <c:v>9377.9957575623594</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>28095.523210707477</c:v>
+                  <c:v>9365.174403569159</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>28086.160551875284</c:v>
+                  <c:v>9362.0535172917607</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>28075.75887536442</c:v>
+                  <c:v>9358.5862917881386</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>28034.176633978685</c:v>
+                  <c:v>9344.7255446595609</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>28011.403516226404</c:v>
+                  <c:v>9337.1345054087997</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>27999.976839857281</c:v>
+                  <c:v>9333.3256132857605</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>27991.562023607217</c:v>
+                  <c:v>9330.5206745357409</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>27984.072560827859</c:v>
+                  <c:v>9328.0241869426191</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>27971.97929745588</c:v>
+                  <c:v>9323.9930991519614</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>27963.021552017941</c:v>
+                  <c:v>9321.0071840059791</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>27953.495252160483</c:v>
+                  <c:v>9317.8317507201609</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>27942.091735485421</c:v>
+                  <c:v>9314.0305784951415</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>27934.239759405835</c:v>
+                  <c:v>9311.4132531352789</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>27928.3857449598</c:v>
+                  <c:v>9309.4619149866012</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>27896.825442282479</c:v>
+                  <c:v>9298.9418140941598</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>27879.383215835638</c:v>
+                  <c:v>9293.12773861188</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>27862.832943652862</c:v>
+                  <c:v>9287.6109812176201</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>27832.895773039803</c:v>
+                  <c:v>9277.6319243466005</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>27820.035971085239</c:v>
+                  <c:v>9273.3453236950809</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>27797.34653275536</c:v>
+                  <c:v>9265.7821775851207</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>27785.905799886536</c:v>
+                  <c:v>9261.9685999621797</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>27763.909497040324</c:v>
+                  <c:v>9254.6364990134407</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>27761.151805643163</c:v>
+                  <c:v>9253.7172685477199</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>27746.827543488063</c:v>
+                  <c:v>9248.9425144960205</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>27746.615782874338</c:v>
+                  <c:v>9248.8719276247793</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>27725.419786494243</c:v>
+                  <c:v>9241.8065954980793</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>27720.404488084499</c:v>
+                  <c:v>9240.1348293614992</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>27712.534138344363</c:v>
+                  <c:v>9237.5113794481204</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>27704.711501096943</c:v>
+                  <c:v>9234.9038336989797</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>27694.212463561857</c:v>
+                  <c:v>9231.4041545206201</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>27662.150465675277</c:v>
+                  <c:v>9220.7168218917595</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>27650.218402909981</c:v>
+                  <c:v>9216.7394676366603</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>27639.306855411662</c:v>
+                  <c:v>9213.10228513722</c:v>
                 </c:pt>
                 <c:pt idx="156">
-                  <c:v>27628.966927821239</c:v>
+                  <c:v>9209.6556426070802</c:v>
                 </c:pt>
                 <c:pt idx="157">
-                  <c:v>27603.042533411397</c:v>
+                  <c:v>9201.0141778037996</c:v>
                 </c:pt>
                 <c:pt idx="158">
-                  <c:v>27594.114222926517</c:v>
+                  <c:v>9198.038074308839</c:v>
                 </c:pt>
                 <c:pt idx="159">
-                  <c:v>27564.213007193401</c:v>
+                  <c:v>9188.071002397799</c:v>
                 </c:pt>
                 <c:pt idx="160">
-                  <c:v>27554.218180037456</c:v>
+                  <c:v>9184.7393933458188</c:v>
                 </c:pt>
                 <c:pt idx="161">
-                  <c:v>27531.273105453238</c:v>
+                  <c:v>9177.0910351510793</c:v>
                 </c:pt>
                 <c:pt idx="162">
-                  <c:v>27519.648911207642</c:v>
+                  <c:v>9173.2163037358805</c:v>
                 </c:pt>
                 <c:pt idx="163">
-                  <c:v>27499.524782743076</c:v>
+                  <c:v>9166.5082609143592</c:v>
                 </c:pt>
                 <c:pt idx="164">
-                  <c:v>27488.289731837944</c:v>
+                  <c:v>9162.7632439459812</c:v>
                 </c:pt>
                 <c:pt idx="165">
-                  <c:v>27475.616269754279</c:v>
+                  <c:v>9158.5387565847595</c:v>
                 </c:pt>
                 <c:pt idx="166">
-                  <c:v>27471.242960436957</c:v>
+                  <c:v>9157.0809868123197</c:v>
                 </c:pt>
                 <c:pt idx="167">
-                  <c:v>27469.148154470276</c:v>
+                  <c:v>9156.3827181567594</c:v>
                 </c:pt>
                 <c:pt idx="168">
-                  <c:v>27447.988326959879</c:v>
+                  <c:v>9149.3294423199604</c:v>
                 </c:pt>
                 <c:pt idx="169">
-                  <c:v>27426.04422783768</c:v>
+                  <c:v>9142.0147426125604</c:v>
                 </c:pt>
                 <c:pt idx="170">
-                  <c:v>27399.667146636599</c:v>
+                  <c:v>9133.2223822121996</c:v>
                 </c:pt>
                 <c:pt idx="171">
-                  <c:v>27385.448130178382</c:v>
+                  <c:v>9128.4827100594612</c:v>
                 </c:pt>
                 <c:pt idx="172">
-                  <c:v>27354.120505463878</c:v>
+                  <c:v>9118.0401684879598</c:v>
                 </c:pt>
                 <c:pt idx="173">
-                  <c:v>27329.019301943459</c:v>
+                  <c:v>9109.6731006478185</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1230,11 +1230,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1346304816"/>
-        <c:axId val="-1346317328"/>
+        <c:axId val="-368488128"/>
+        <c:axId val="-368493024"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1346304816"/>
+        <c:axId val="-368488128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -1353,12 +1353,12 @@
             <a:endParaRPr lang="es-UY"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1346317328"/>
+        <c:crossAx val="-368493024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1346317328"/>
+        <c:axId val="-368493024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1471,7 +1471,7 @@
             <a:endParaRPr lang="es-UY"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1346304816"/>
+        <c:crossAx val="-368488128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1965,388 +1965,388 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="161"/>
                 <c:pt idx="0">
-                  <c:v>119885.86320066197</c:v>
+                  <c:v>39961.954400220653</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>119885.86320066197</c:v>
+                  <c:v>39961.954400220653</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>119735.82640954998</c:v>
+                  <c:v>39911.942136516656</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>119712.2531050231</c:v>
+                  <c:v>39904.084368341042</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>118949.34197296045</c:v>
+                  <c:v>39649.780657653479</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>118611.09580410739</c:v>
+                  <c:v>39537.031934702463</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>118508.57215490195</c:v>
+                  <c:v>39502.857384967319</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>118407.42790957367</c:v>
+                  <c:v>39469.142636524557</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>118273.77197072549</c:v>
+                  <c:v>39424.590656908498</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>117860.01811960968</c:v>
+                  <c:v>39286.672706536563</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>117739.90634757714</c:v>
+                  <c:v>39246.635449192378</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>117446.51137289364</c:v>
+                  <c:v>39148.837124297876</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>117322.39063743193</c:v>
+                  <c:v>39107.463545810642</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>117225.81393564548</c:v>
+                  <c:v>39075.271311881821</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>117148.45425897096</c:v>
+                  <c:v>39049.48475299032</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>116990.33369598287</c:v>
+                  <c:v>38996.777898660963</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>116899.71564134771</c:v>
+                  <c:v>38966.571880449235</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>116844.30493568929</c:v>
+                  <c:v>38948.101645229763</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>116770.78131054335</c:v>
+                  <c:v>38923.59377018112</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>116414.90795877643</c:v>
+                  <c:v>38804.969319592143</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>116251.1463981222</c:v>
+                  <c:v>38750.382132707404</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>116104.71418807824</c:v>
+                  <c:v>38701.571396026084</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>115884.17146714788</c:v>
+                  <c:v>38628.057155715964</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>115601.35521362994</c:v>
+                  <c:v>38533.785071209983</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>115457.91522469668</c:v>
+                  <c:v>38485.971741565561</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>115428.86891933688</c:v>
+                  <c:v>38476.289639778966</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>115239.50149604742</c:v>
+                  <c:v>38413.167165349143</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>115156.24391892528</c:v>
+                  <c:v>38385.414639641764</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>115121.55736990008</c:v>
+                  <c:v>38373.852456633358</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>115055.21022118434</c:v>
+                  <c:v>38351.736740394786</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>115005.69305928037</c:v>
+                  <c:v>38335.231019760118</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>114899.10163626366</c:v>
+                  <c:v>38299.700545421219</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>114784.00098137693</c:v>
+                  <c:v>38261.333660458979</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>114690.28621262618</c:v>
+                  <c:v>38230.095404208725</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>114618.10159371041</c:v>
+                  <c:v>38206.033864570141</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>114489.7393020624</c:v>
+                  <c:v>38163.246434020803</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>114424.84739012599</c:v>
+                  <c:v>38141.615796708662</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>114343.39601981838</c:v>
+                  <c:v>38114.465339939459</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>114274.0399517928</c:v>
+                  <c:v>38091.346650597603</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>114232.06158369317</c:v>
+                  <c:v>38077.353861231059</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>114213.88387014966</c:v>
+                  <c:v>38071.294623383219</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>114190.45428960072</c:v>
+                  <c:v>38063.484763200242</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>114148.29754919322</c:v>
+                  <c:v>38049.432516397734</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>114077.36359077858</c:v>
+                  <c:v>38025.787863592857</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>114037.62618642156</c:v>
+                  <c:v>38012.542062140514</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>113951.72541528485</c:v>
+                  <c:v>37983.908471761621</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>113914.59141569995</c:v>
+                  <c:v>37971.530471899983</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>113765.27760490032</c:v>
+                  <c:v>37921.759201633438</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>113662.59544405909</c:v>
+                  <c:v>37887.531814686365</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>113575.96188012601</c:v>
+                  <c:v>37858.653960042</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>113505.97135885291</c:v>
+                  <c:v>37835.323786284302</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>113418.75935141297</c:v>
+                  <c:v>37806.253117137661</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>113349.16041404993</c:v>
+                  <c:v>37783.05347134998</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>113191.74864430129</c:v>
+                  <c:v>37730.582881433758</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>113108.91262127963</c:v>
+                  <c:v>37702.970873759878</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>113060.84982455557</c:v>
+                  <c:v>37686.94994151852</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>113026.41885642192</c:v>
+                  <c:v>37675.472952140641</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>112907.36306938123</c:v>
+                  <c:v>37635.787689793739</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>112881.50814423186</c:v>
+                  <c:v>37627.169381410626</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>112802.66076104442</c:v>
+                  <c:v>37600.886920348137</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>112715.13391759926</c:v>
+                  <c:v>37571.711305866418</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>112667.47145519292</c:v>
+                  <c:v>37555.823818397643</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>112579.2218094921</c:v>
+                  <c:v>37526.407269830699</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>112549.99671827946</c:v>
+                  <c:v>37516.665572759819</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>112483.37462085306</c:v>
+                  <c:v>37494.458206951022</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>112419.18805098205</c:v>
+                  <c:v>37473.062683660683</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>112280.45266404215</c:v>
+                  <c:v>37426.817554680718</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>112255.92107113446</c:v>
+                  <c:v>37418.640357044816</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>112180.32820234585</c:v>
+                  <c:v>37393.442734115284</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>112065.51363527952</c:v>
+                  <c:v>37355.171211759844</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>111998.63099598984</c:v>
+                  <c:v>37332.876998663283</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>111933.41933368387</c:v>
+                  <c:v>37311.139777894627</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>111861.99184429728</c:v>
+                  <c:v>37287.330614765757</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>111752.27644642344</c:v>
+                  <c:v>37250.758815474481</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>111608.93191208634</c:v>
+                  <c:v>37202.977304028776</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>111576.80980514485</c:v>
+                  <c:v>37192.26993504828</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>111521.96918943373</c:v>
+                  <c:v>37173.989729811241</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>111479.52686631444</c:v>
+                  <c:v>37159.842288771484</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>111435.25413721391</c:v>
+                  <c:v>37145.084712404634</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>111375.59689838125</c:v>
+                  <c:v>37125.198966127078</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>111360.73406864237</c:v>
+                  <c:v>37120.244689547457</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>111274.3062974988</c:v>
+                  <c:v>37091.435432499595</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>111190.8005714493</c:v>
+                  <c:v>37063.600190483106</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>111169.9961225955</c:v>
+                  <c:v>37056.665374198499</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>111144.16255395816</c:v>
+                  <c:v>37048.054184652719</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>111111.94436981634</c:v>
+                  <c:v>37037.314789938777</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>111023.0511530931</c:v>
+                  <c:v>37007.683717697706</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>110983.08296289221</c:v>
+                  <c:v>36994.360987630738</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>110882.39215854042</c:v>
+                  <c:v>36960.797386180137</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>110803.71317445287</c:v>
+                  <c:v>36934.571058150963</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>110738.16623999916</c:v>
+                  <c:v>36912.722079999723</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>110698.85235576582</c:v>
+                  <c:v>36899.617451921935</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>110675.06500882734</c:v>
+                  <c:v>36891.68833627578</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>110581.57517706163</c:v>
+                  <c:v>36860.52505902054</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>110501.65118574648</c:v>
+                  <c:v>36833.883728582157</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>110422.96330794696</c:v>
+                  <c:v>36807.654435982324</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>110309.15032461542</c:v>
+                  <c:v>36769.716774871798</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>110243.02607836902</c:v>
+                  <c:v>36747.675359456342</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>110157.73862287356</c:v>
+                  <c:v>36719.246207624514</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>110025.60519314322</c:v>
+                  <c:v>36675.201731047739</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>109960.77829900879</c:v>
+                  <c:v>36653.59276633626</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>109905.63660928584</c:v>
+                  <c:v>36635.212203095281</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>109846.5465098171</c:v>
+                  <c:v>36615.515503272363</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>109781.13392422309</c:v>
+                  <c:v>36593.711308074358</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>109653.41344301442</c:v>
+                  <c:v>36551.137814338137</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>109502.24919785443</c:v>
+                  <c:v>36500.74973261814</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>109485.11928850795</c:v>
+                  <c:v>36495.039762835979</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>109451.50274432609</c:v>
+                  <c:v>36483.834248108702</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>109360.93820268151</c:v>
+                  <c:v>36453.646067560505</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>109346.85739040274</c:v>
+                  <c:v>36448.952463467584</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>109266.71605734348</c:v>
+                  <c:v>36422.238685781165</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>109249.78940719634</c:v>
+                  <c:v>36416.596469065444</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>109179.33370063578</c:v>
+                  <c:v>36393.111233545264</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>109134.14959932516</c:v>
+                  <c:v>36378.049866441717</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>109088.21205804762</c:v>
+                  <c:v>36362.737352682539</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>108993.30892794592</c:v>
+                  <c:v>36331.102975981979</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>108941.24959820029</c:v>
+                  <c:v>36313.749866066762</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>108863.99245045475</c:v>
+                  <c:v>36287.99748348492</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>108757.08628803217</c:v>
+                  <c:v>36252.362096010722</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>108679.79745241343</c:v>
+                  <c:v>36226.599150804475</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>108618.7967628219</c:v>
+                  <c:v>36206.265587607304</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>108587.41526681928</c:v>
+                  <c:v>36195.805088939764</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>108539.80897821065</c:v>
+                  <c:v>36179.936326070223</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>108530.05853964474</c:v>
+                  <c:v>36176.686179881581</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>108508.28007550014</c:v>
+                  <c:v>36169.426691833374</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>108469.28125009655</c:v>
+                  <c:v>36156.427083365517</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>108440.9599609656</c:v>
+                  <c:v>36146.9866536552</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>108337.6412667511</c:v>
+                  <c:v>36112.547088917039</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2361,11 +2361,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1346305904"/>
-        <c:axId val="-1346311888"/>
+        <c:axId val="-368485952"/>
+        <c:axId val="-368497920"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1346305904"/>
+        <c:axId val="-368485952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -2484,12 +2484,12 @@
             <a:endParaRPr lang="es-UY"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1346311888"/>
+        <c:crossAx val="-368497920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1346311888"/>
+        <c:axId val="-368497920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2602,7 +2602,7 @@
             <a:endParaRPr lang="es-UY"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1346305904"/>
+        <c:crossAx val="-368485952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3180,472 +3180,472 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="163"/>
                 <c:pt idx="0">
-                  <c:v>403235.51467025874</c:v>
+                  <c:v>134411.83822341959</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>403235.51467025874</c:v>
+                  <c:v>134411.83822341959</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>402923.84692148463</c:v>
+                  <c:v>134307.9489738282</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>402473.92041143455</c:v>
+                  <c:v>134157.9734704782</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>402142.52109094016</c:v>
+                  <c:v>134047.5070303134</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>400962.60541170358</c:v>
+                  <c:v>133654.2018039012</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>400962.60541170358</c:v>
+                  <c:v>133654.2018039012</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>400081.9660611102</c:v>
+                  <c:v>133360.65535370339</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>399639.31075636379</c:v>
+                  <c:v>133213.10358545461</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>399479.88811040815</c:v>
+                  <c:v>133159.96270346938</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>399189.57234195963</c:v>
+                  <c:v>133063.19078065321</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>396296.80698930658</c:v>
+                  <c:v>132098.93566310219</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>394870.3221192066</c:v>
+                  <c:v>131623.44070640221</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>394273.20935260446</c:v>
+                  <c:v>131424.40311753482</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>393528.00067648024</c:v>
+                  <c:v>131176.00022549339</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>392839.33287388866</c:v>
+                  <c:v>130946.44429129621</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>392425.96094679605</c:v>
+                  <c:v>130808.65364893201</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>391576.05009644036</c:v>
+                  <c:v>130525.35003214679</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>390977.22651730559</c:v>
+                  <c:v>130325.74217243519</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>390868.79375580297</c:v>
+                  <c:v>130289.59791860101</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>389817.45009435061</c:v>
+                  <c:v>129939.1500314502</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>389405.23572926165</c:v>
+                  <c:v>129801.74524308721</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>388832.10294066841</c:v>
+                  <c:v>129610.70098022281</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>388071.659777814</c:v>
+                  <c:v>129357.219925938</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>387790.88099628605</c:v>
+                  <c:v>129263.62699876202</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>387467.14824052918</c:v>
+                  <c:v>129155.7160801764</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>386957.694214035</c:v>
+                  <c:v>128985.898071345</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>386740.8124563708</c:v>
+                  <c:v>128913.60415212359</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>385913.57871935703</c:v>
+                  <c:v>128637.859573119</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>385060.62886654143</c:v>
+                  <c:v>128353.5429555138</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>384553.47856350779</c:v>
+                  <c:v>128184.49285450261</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>384175.06779498665</c:v>
+                  <c:v>128058.35593166221</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>383603.55890493066</c:v>
+                  <c:v>127867.85296831021</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>383209.19336828165</c:v>
+                  <c:v>127736.3977894272</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>382943.75489157415</c:v>
+                  <c:v>127647.91829719138</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>382610.9923781472</c:v>
+                  <c:v>127536.9974593824</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>382227.71519287804</c:v>
+                  <c:v>127409.23839762602</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>382012.62996136141</c:v>
+                  <c:v>127337.54332045381</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>381595.74837892916</c:v>
+                  <c:v>127198.58279297639</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>381403.71041739301</c:v>
+                  <c:v>127134.57013913101</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>381198.19478052965</c:v>
+                  <c:v>127066.0649268432</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>381057.35244255723</c:v>
+                  <c:v>127019.11748085241</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>380797.09439579275</c:v>
+                  <c:v>126932.36479859758</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>380640.45111365517</c:v>
+                  <c:v>126880.15037121839</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>380514.74558961962</c:v>
+                  <c:v>126838.24852987321</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>380197.33470558899</c:v>
+                  <c:v>126732.444901863</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>380010.35499927477</c:v>
+                  <c:v>126670.11833309158</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>379787.36537849042</c:v>
+                  <c:v>126595.78845949681</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>379605.40571196715</c:v>
+                  <c:v>126535.13523732239</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>379463.27526307979</c:v>
+                  <c:v>126487.75842102661</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>379349.55087730207</c:v>
+                  <c:v>126449.85029243401</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>379337.02277728682</c:v>
+                  <c:v>126445.6742590956</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>379262.25905816525</c:v>
+                  <c:v>126420.75301938842</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>379105.23410501756</c:v>
+                  <c:v>126368.41136833919</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>378929.15081872919</c:v>
+                  <c:v>126309.71693957639</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>378735.19650528656</c:v>
+                  <c:v>126245.06550176219</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>378619.92861997319</c:v>
+                  <c:v>126206.6428733244</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>378567.89215485123</c:v>
+                  <c:v>126189.29738495039</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>378511.83148269414</c:v>
+                  <c:v>126170.61049423138</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>378472.28216345637</c:v>
+                  <c:v>126157.4273878188</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>378450.36195786181</c:v>
+                  <c:v>126150.12065262059</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>378198.46609676821</c:v>
+                  <c:v>126066.15536558939</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>378186.04195720563</c:v>
+                  <c:v>126062.0139857352</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>378085.33476639359</c:v>
+                  <c:v>126028.4449221312</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>378038.65373426158</c:v>
+                  <c:v>126012.88457808719</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>377917.3159862652</c:v>
+                  <c:v>125972.4386620884</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>377611.18655350321</c:v>
+                  <c:v>125870.39551783439</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>377462.67124649399</c:v>
+                  <c:v>125820.890415498</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>377273.98313357041</c:v>
+                  <c:v>125757.99437785681</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>377125.15377839579</c:v>
+                  <c:v>125708.3845927986</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>377003.00388516841</c:v>
+                  <c:v>125667.66796172279</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>376645.80471390177</c:v>
+                  <c:v>125548.60157130059</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>376484.15933205304</c:v>
+                  <c:v>125494.71977735101</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>376328.97112650477</c:v>
+                  <c:v>125442.9903755016</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>376064.48711649602</c:v>
+                  <c:v>125354.82903883202</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>376027.6908360474</c:v>
+                  <c:v>125342.5636120158</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>375719.88564788218</c:v>
+                  <c:v>125239.96188262741</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>375626.88364554534</c:v>
+                  <c:v>125208.96121518179</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>375452.41341723833</c:v>
+                  <c:v>125150.8044724128</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>375446.80451762286</c:v>
+                  <c:v>125148.93483920761</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>375195.74065625889</c:v>
+                  <c:v>125065.2468854196</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>375072.08220089279</c:v>
+                  <c:v>125024.02740029761</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>374909.04818792274</c:v>
+                  <c:v>124969.68272930759</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>374907.75092868606</c:v>
+                  <c:v>124969.25030956202</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>374646.64811176626</c:v>
+                  <c:v>124882.21603725541</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>374619.55573830963</c:v>
+                  <c:v>124873.1852461032</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>374278.99891265645</c:v>
+                  <c:v>124759.66630421882</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>374203.31371183618</c:v>
+                  <c:v>124734.43790394539</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>374094.26818141493</c:v>
+                  <c:v>124698.089393805</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>374061.0254758434</c:v>
+                  <c:v>124687.0084919478</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>373662.66898990801</c:v>
+                  <c:v>124554.222996636</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>373655.54255912104</c:v>
+                  <c:v>124551.84751970699</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>373570.84948229103</c:v>
+                  <c:v>124523.616494097</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>373544.90061169141</c:v>
+                  <c:v>124514.96687056382</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>373376.67547555082</c:v>
+                  <c:v>124458.89182518359</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>373200.8583133152</c:v>
+                  <c:v>124400.2861044384</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>372966.45462618303</c:v>
+                  <c:v>124322.15154206099</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>372836.87720737199</c:v>
+                  <c:v>124278.95906912399</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>372732.48630551877</c:v>
+                  <c:v>124244.1621018396</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>372656.1272563134</c:v>
+                  <c:v>124218.70908543779</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>372608.08243406104</c:v>
+                  <c:v>124202.694144687</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>372500.26655975461</c:v>
+                  <c:v>124166.75551991821</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>372476.08856172062</c:v>
+                  <c:v>124158.6961872402</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>372228.40390252683</c:v>
+                  <c:v>124076.1346341756</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>372003.37509885483</c:v>
+                  <c:v>124001.1250329516</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>371902.85494700755</c:v>
+                  <c:v>123967.61831566918</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>371716.34101753682</c:v>
+                  <c:v>123905.44700584561</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>371601.74875539786</c:v>
+                  <c:v>123867.24958513261</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>371470.80253681977</c:v>
+                  <c:v>123823.60084560659</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>371362.59517825622</c:v>
+                  <c:v>123787.53172608541</c:v>
                 </c:pt>
                 <c:pt idx="110">
-                  <c:v>371275.95118504495</c:v>
+                  <c:v>123758.65039501499</c:v>
                 </c:pt>
                 <c:pt idx="111">
-                  <c:v>371057.89847986802</c:v>
+                  <c:v>123685.96615995599</c:v>
                 </c:pt>
                 <c:pt idx="112">
-                  <c:v>370958.68918986118</c:v>
+                  <c:v>123652.8963966204</c:v>
                 </c:pt>
                 <c:pt idx="113">
-                  <c:v>370673.65603883518</c:v>
+                  <c:v>123557.8853462784</c:v>
                 </c:pt>
                 <c:pt idx="114">
-                  <c:v>370589.11248340621</c:v>
+                  <c:v>123529.70416113539</c:v>
                 </c:pt>
                 <c:pt idx="115">
-                  <c:v>370576.61976986099</c:v>
+                  <c:v>123525.53992328701</c:v>
                 </c:pt>
                 <c:pt idx="116">
-                  <c:v>370453.89160967758</c:v>
+                  <c:v>123484.6305365592</c:v>
                 </c:pt>
                 <c:pt idx="117">
-                  <c:v>370118.30211647099</c:v>
+                  <c:v>123372.76737215699</c:v>
                 </c:pt>
                 <c:pt idx="118">
-                  <c:v>369945.61597749422</c:v>
+                  <c:v>123315.20532583141</c:v>
                 </c:pt>
                 <c:pt idx="119">
-                  <c:v>369742.9515831882</c:v>
+                  <c:v>123247.65052772941</c:v>
                 </c:pt>
                 <c:pt idx="120">
-                  <c:v>369671.01572346839</c:v>
+                  <c:v>123223.67190782281</c:v>
                 </c:pt>
                 <c:pt idx="121">
-                  <c:v>369644.57072086865</c:v>
+                  <c:v>123214.85690695621</c:v>
                 </c:pt>
                 <c:pt idx="122">
-                  <c:v>369427.9129718616</c:v>
+                  <c:v>123142.63765728721</c:v>
                 </c:pt>
                 <c:pt idx="123">
-                  <c:v>369345.56482547452</c:v>
+                  <c:v>123115.18827515819</c:v>
                 </c:pt>
                 <c:pt idx="124">
-                  <c:v>369140.90297823003</c:v>
+                  <c:v>123046.96765941002</c:v>
                 </c:pt>
                 <c:pt idx="125">
-                  <c:v>368969.56001438404</c:v>
+                  <c:v>122989.853338128</c:v>
                 </c:pt>
                 <c:pt idx="126">
-                  <c:v>368681.73424930259</c:v>
+                  <c:v>122893.91141643422</c:v>
                 </c:pt>
                 <c:pt idx="127">
-                  <c:v>368479.15780612139</c:v>
+                  <c:v>122826.38593537379</c:v>
                 </c:pt>
                 <c:pt idx="128">
-                  <c:v>368260.56395136</c:v>
+                  <c:v>122753.52131712</c:v>
                 </c:pt>
                 <c:pt idx="129">
-                  <c:v>368128.1452755708</c:v>
+                  <c:v>122709.3817585236</c:v>
                 </c:pt>
                 <c:pt idx="130">
-                  <c:v>368019.19579708442</c:v>
+                  <c:v>122673.06526569479</c:v>
                 </c:pt>
                 <c:pt idx="131">
-                  <c:v>367917.76958423579</c:v>
+                  <c:v>122639.25652807859</c:v>
                 </c:pt>
                 <c:pt idx="132">
-                  <c:v>367872.5607885936</c:v>
+                  <c:v>122624.18692953121</c:v>
                 </c:pt>
                 <c:pt idx="133">
-                  <c:v>367602.80228435522</c:v>
+                  <c:v>122534.2674281184</c:v>
                 </c:pt>
                 <c:pt idx="134">
-                  <c:v>367444.50868335424</c:v>
+                  <c:v>122481.50289445139</c:v>
                 </c:pt>
                 <c:pt idx="135">
-                  <c:v>367227.826142409</c:v>
+                  <c:v>122409.27538080301</c:v>
                 </c:pt>
                 <c:pt idx="136">
-                  <c:v>366762.50216443441</c:v>
+                  <c:v>122254.16738814481</c:v>
                 </c:pt>
                 <c:pt idx="137">
-                  <c:v>366686.68492332718</c:v>
+                  <c:v>122228.8949744424</c:v>
                 </c:pt>
                 <c:pt idx="138">
-                  <c:v>366632.85429753124</c:v>
+                  <c:v>122210.9514325104</c:v>
                 </c:pt>
                 <c:pt idx="139">
-                  <c:v>366438.58985343238</c:v>
+                  <c:v>122146.1966178108</c:v>
                 </c:pt>
                 <c:pt idx="140">
-                  <c:v>366286.29824404075</c:v>
+                  <c:v>122095.4327480136</c:v>
                 </c:pt>
                 <c:pt idx="141">
-                  <c:v>365831.33653555921</c:v>
+                  <c:v>121943.7788451864</c:v>
                 </c:pt>
                 <c:pt idx="142">
-                  <c:v>365596.13214047696</c:v>
+                  <c:v>121865.377380159</c:v>
                 </c:pt>
                 <c:pt idx="143">
-                  <c:v>365543.16625635483</c:v>
+                  <c:v>121847.72208545159</c:v>
                 </c:pt>
                 <c:pt idx="144">
-                  <c:v>365066.89387082099</c:v>
+                  <c:v>121688.964623607</c:v>
                 </c:pt>
                 <c:pt idx="145">
-                  <c:v>364835.93644462503</c:v>
+                  <c:v>121611.97881487501</c:v>
                 </c:pt>
                 <c:pt idx="146">
-                  <c:v>364610.67065393226</c:v>
+                  <c:v>121536.8902179774</c:v>
                 </c:pt>
                 <c:pt idx="147">
-                  <c:v>364231.25878269423</c:v>
+                  <c:v>121410.4195942314</c:v>
                 </c:pt>
                 <c:pt idx="148">
-                  <c:v>363997.9902333924</c:v>
+                  <c:v>121332.66341113081</c:v>
                 </c:pt>
                 <c:pt idx="149">
-                  <c:v>363768.0866933004</c:v>
+                  <c:v>121256.0288977668</c:v>
                 </c:pt>
                 <c:pt idx="150">
-                  <c:v>363464.22720357357</c:v>
+                  <c:v>121154.74240119119</c:v>
                 </c:pt>
                 <c:pt idx="151">
-                  <c:v>363224.83870467002</c:v>
+                  <c:v>121074.94623489</c:v>
                 </c:pt>
                 <c:pt idx="152">
-                  <c:v>363156.40645232581</c:v>
+                  <c:v>121052.1354841086</c:v>
                 </c:pt>
                 <c:pt idx="153">
-                  <c:v>363111.16388377675</c:v>
+                  <c:v>121037.05462792559</c:v>
                 </c:pt>
                 <c:pt idx="154">
-                  <c:v>362921.50132698962</c:v>
+                  <c:v>120973.8337756632</c:v>
                 </c:pt>
                 <c:pt idx="155">
-                  <c:v>362675.10081146221</c:v>
+                  <c:v>120891.7002704874</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3660,11 +3660,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-1346311344"/>
-        <c:axId val="-1346305360"/>
+        <c:axId val="-368495200"/>
+        <c:axId val="-368487040"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-1346311344"/>
+        <c:axId val="-368495200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="1"/>
@@ -3783,12 +3783,12 @@
             <a:endParaRPr lang="es-UY"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1346305360"/>
+        <c:crossAx val="-368487040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-1346305360"/>
+        <c:axId val="-368487040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3901,7 +3901,7 @@
             <a:endParaRPr lang="es-UY"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1346311344"/>
+        <c:crossAx val="-368495200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5993,7 +5993,7 @@
   <dimension ref="A1:F175"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6040,12 +6040,12 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <f>A2*(24/4)*30</f>
-        <v>30393.348402218398</v>
+        <f>A2*(24/12)*30</f>
+        <v>10131.116134072799</v>
       </c>
       <c r="F2">
         <f>E2/2</f>
-        <v>15196.674201109199</v>
+        <v>5065.5580670363997</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -6064,8 +6064,8 @@
         <v>1</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E66" si="2">A3*(24/4)*30</f>
-        <v>30393.348402218398</v>
+        <f t="shared" ref="E3:E66" si="2">A3*(24/12)*30</f>
+        <v>10131.116134072799</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -6085,7 +6085,7 @@
       </c>
       <c r="E4">
         <f t="shared" si="2"/>
-        <v>30373.739445270603</v>
+        <v>10124.579815090201</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -6105,7 +6105,7 @@
       </c>
       <c r="E5">
         <f t="shared" si="2"/>
-        <v>30242.577159787499</v>
+        <v>10080.8590532625</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -6125,7 +6125,7 @@
       </c>
       <c r="E6">
         <f t="shared" si="2"/>
-        <v>30235.16586116844</v>
+        <v>10078.38862038948</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -6145,7 +6145,7 @@
       </c>
       <c r="E7">
         <f t="shared" si="2"/>
-        <v>30191.185872251637</v>
+        <v>10063.72862408388</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -6165,7 +6165,7 @@
       </c>
       <c r="E8">
         <f t="shared" si="2"/>
-        <v>29861.081032645798</v>
+        <v>9953.6936775485992</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -6185,7 +6185,7 @@
       </c>
       <c r="E9">
         <f t="shared" si="2"/>
-        <v>29838.390751062543</v>
+        <v>9946.130250354181</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -6205,7 +6205,7 @@
       </c>
       <c r="E10">
         <f t="shared" si="2"/>
-        <v>29821.844997589498</v>
+        <v>9940.6149991964994</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -6225,7 +6225,7 @@
       </c>
       <c r="E11">
         <f t="shared" si="2"/>
-        <v>29819.448137285461</v>
+        <v>9939.8160457618196</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -6245,7 +6245,7 @@
       </c>
       <c r="E12">
         <f t="shared" si="2"/>
-        <v>29807.43694258554</v>
+        <v>9935.8123141951801</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -6265,7 +6265,7 @@
       </c>
       <c r="E13">
         <f t="shared" si="2"/>
-        <v>29792.045639669403</v>
+        <v>9930.6818798898003</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -6285,7 +6285,7 @@
       </c>
       <c r="E14">
         <f t="shared" si="2"/>
-        <v>29784.91364221356</v>
+        <v>9928.3045474045193</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -6305,7 +6305,7 @@
       </c>
       <c r="E15">
         <f t="shared" si="2"/>
-        <v>29769.491389919582</v>
+        <v>9923.1637966398594</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -6325,7 +6325,7 @@
       </c>
       <c r="E16">
         <f t="shared" si="2"/>
-        <v>29764.111374146702</v>
+        <v>9921.3704580489011</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -6345,7 +6345,7 @@
       </c>
       <c r="E17">
         <f t="shared" si="2"/>
-        <v>29751.639939134635</v>
+        <v>9917.2133130448801</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -6365,7 +6365,7 @@
       </c>
       <c r="E18">
         <f t="shared" si="2"/>
-        <v>29711.834750680198</v>
+        <v>9903.9449168934007</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -6385,7 +6385,7 @@
       </c>
       <c r="E19">
         <f t="shared" si="2"/>
-        <v>29702.0906413515</v>
+        <v>9900.6968804505013</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -6405,7 +6405,7 @@
       </c>
       <c r="E20">
         <f t="shared" si="2"/>
-        <v>29696.610823131417</v>
+        <v>9898.8702743771391</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -6425,7 +6425,7 @@
       </c>
       <c r="E21">
         <f t="shared" si="2"/>
-        <v>29677.415422316404</v>
+        <v>9892.4718074388002</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -6445,7 +6445,7 @@
       </c>
       <c r="E22">
         <f t="shared" si="2"/>
-        <v>29664.581096533679</v>
+        <v>9888.1936988445595</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -6465,7 +6465,7 @@
       </c>
       <c r="E23">
         <f t="shared" si="2"/>
-        <v>29657.805317391241</v>
+        <v>9885.9351057970798</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -6485,7 +6485,7 @@
       </c>
       <c r="E24">
         <f t="shared" si="2"/>
-        <v>29654.623841573339</v>
+        <v>9884.874613857779</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -6505,7 +6505,7 @@
       </c>
       <c r="E25">
         <f t="shared" si="2"/>
-        <v>29646.496942173002</v>
+        <v>9882.1656473910007</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -6525,7 +6525,7 @@
       </c>
       <c r="E26">
         <f t="shared" si="2"/>
-        <v>29638.917477761581</v>
+        <v>9879.6391592538603</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -6545,7 +6545,7 @@
       </c>
       <c r="E27">
         <f t="shared" si="2"/>
-        <v>29627.790415088941</v>
+        <v>9875.9301383629791</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -6565,7 +6565,7 @@
       </c>
       <c r="E28">
         <f t="shared" si="2"/>
-        <v>29614.0320390573</v>
+        <v>9871.3440130191011</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -6585,7 +6585,7 @@
       </c>
       <c r="E29">
         <f t="shared" si="2"/>
-        <v>29604.068670852543</v>
+        <v>9868.0228902841809</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -6605,7 +6605,7 @@
       </c>
       <c r="E30">
         <f t="shared" si="2"/>
-        <v>29596.060974375177</v>
+        <v>9865.3536581250592</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -6625,7 +6625,7 @@
       </c>
       <c r="E31">
         <f t="shared" si="2"/>
-        <v>29562.93458990856</v>
+        <v>9854.3115299695201</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -6645,7 +6645,7 @@
       </c>
       <c r="E32">
         <f t="shared" si="2"/>
-        <v>29548.636025696818</v>
+        <v>9849.54534189894</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -6665,7 +6665,7 @@
       </c>
       <c r="E33">
         <f t="shared" si="2"/>
-        <v>29515.82022080748</v>
+        <v>9838.6067402691588</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -6685,7 +6685,7 @@
       </c>
       <c r="E34">
         <f t="shared" si="2"/>
-        <v>29502.53941620042</v>
+        <v>9834.179805400141</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -6705,7 +6705,7 @@
       </c>
       <c r="E35">
         <f t="shared" si="2"/>
-        <v>29495.097807035581</v>
+        <v>9831.6992690118605</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -6725,7 +6725,7 @@
       </c>
       <c r="E36">
         <f t="shared" si="2"/>
-        <v>29468.888660962079</v>
+        <v>9822.9628869873595</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -6745,7 +6745,7 @@
       </c>
       <c r="E37">
         <f t="shared" si="2"/>
-        <v>29460.393168412862</v>
+        <v>9820.1310561376195</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -6765,7 +6765,7 @@
       </c>
       <c r="E38">
         <f t="shared" si="2"/>
-        <v>29441.475246601618</v>
+        <v>9813.8250822005393</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -6785,7 +6785,7 @@
       </c>
       <c r="E39">
         <f t="shared" si="2"/>
-        <v>29429.979256485902</v>
+        <v>9809.9930854953</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -6805,7 +6805,7 @@
       </c>
       <c r="E40">
         <f t="shared" si="2"/>
-        <v>29406.37491318168</v>
+        <v>9802.1249710605607</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -6825,7 +6825,7 @@
       </c>
       <c r="E41">
         <f t="shared" si="2"/>
-        <v>29382.162431178596</v>
+        <v>9794.0541437262</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
@@ -6845,7 +6845,7 @@
       </c>
       <c r="E42">
         <f t="shared" si="2"/>
-        <v>29363.75640158544</v>
+        <v>9787.9188005284796</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
@@ -6865,7 +6865,7 @@
       </c>
       <c r="E43">
         <f t="shared" si="2"/>
-        <v>29353.146464932561</v>
+        <v>9784.3821549775203</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
@@ -6885,7 +6885,7 @@
       </c>
       <c r="E44">
         <f t="shared" si="2"/>
-        <v>29340.996022912503</v>
+        <v>9780.3320076375003</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
@@ -6905,7 +6905,7 @@
       </c>
       <c r="E45">
         <f t="shared" si="2"/>
-        <v>29324.307961917362</v>
+        <v>9774.7693206391195</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
@@ -6925,7 +6925,7 @@
       </c>
       <c r="E46">
         <f t="shared" si="2"/>
-        <v>29315.752531648919</v>
+        <v>9771.9175105496397</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
@@ -6945,7 +6945,7 @@
       </c>
       <c r="E47">
         <f t="shared" si="2"/>
-        <v>29306.519575428778</v>
+        <v>9768.8398584762599</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -6965,7 +6965,7 @@
       </c>
       <c r="E48">
         <f t="shared" si="2"/>
-        <v>29303.087202567905</v>
+        <v>9767.6957341893012</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
@@ -6985,7 +6985,7 @@
       </c>
       <c r="E49">
         <f t="shared" si="2"/>
-        <v>29281.618443316856</v>
+        <v>9760.5394811056194</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -7005,7 +7005,7 @@
       </c>
       <c r="E50">
         <f t="shared" si="2"/>
-        <v>29268.982802643481</v>
+        <v>9756.3276008811608</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -7025,7 +7025,7 @@
       </c>
       <c r="E51">
         <f t="shared" si="2"/>
-        <v>29261.546044955277</v>
+        <v>9753.8486816517598</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
@@ -7045,7 +7045,7 @@
       </c>
       <c r="E52">
         <f t="shared" si="2"/>
-        <v>29227.989795555419</v>
+        <v>9742.6632651851396</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
@@ -7065,7 +7065,7 @@
       </c>
       <c r="E53">
         <f t="shared" si="2"/>
-        <v>29210.468388335459</v>
+        <v>9736.8227961118209</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
@@ -7085,7 +7085,7 @@
       </c>
       <c r="E54">
         <f t="shared" si="2"/>
-        <v>29176.825875842875</v>
+        <v>9725.60862528096</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
@@ -7105,7 +7105,7 @@
       </c>
       <c r="E55">
         <f t="shared" si="2"/>
-        <v>29166.320735102159</v>
+        <v>9722.1069117007191</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
@@ -7125,7 +7125,7 @@
       </c>
       <c r="E56">
         <f t="shared" si="2"/>
-        <v>29152.835379040862</v>
+        <v>9717.6117930136206</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
@@ -7145,7 +7145,7 @@
       </c>
       <c r="E57">
         <f t="shared" si="2"/>
-        <v>29135.829988755897</v>
+        <v>9711.9433295852996</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
@@ -7165,7 +7165,7 @@
       </c>
       <c r="E58">
         <f t="shared" si="2"/>
-        <v>29118.817537729381</v>
+        <v>9706.2725125764591</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
@@ -7185,7 +7185,7 @@
       </c>
       <c r="E59">
         <f t="shared" si="2"/>
-        <v>29111.56254352476</v>
+        <v>9703.8541811749201</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
@@ -7205,7 +7205,7 @@
       </c>
       <c r="E60">
         <f t="shared" si="2"/>
-        <v>29099.441585321641</v>
+        <v>9699.8138617738805</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
@@ -7225,7 +7225,7 @@
       </c>
       <c r="E61">
         <f t="shared" si="2"/>
-        <v>29069.412774121443</v>
+        <v>9689.8042580404799</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
@@ -7245,7 +7245,7 @@
       </c>
       <c r="E62">
         <f t="shared" si="2"/>
-        <v>29056.770185561822</v>
+        <v>9685.5900618539399</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
@@ -7265,7 +7265,7 @@
       </c>
       <c r="E63">
         <f t="shared" si="2"/>
-        <v>29039.210551883159</v>
+        <v>9679.7368506277198</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
@@ -7285,7 +7285,7 @@
       </c>
       <c r="E64">
         <f t="shared" si="2"/>
-        <v>29032.680580400342</v>
+        <v>9677.5601934667811</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
@@ -7305,7 +7305,7 @@
       </c>
       <c r="E65">
         <f t="shared" si="2"/>
-        <v>28996.670820184921</v>
+        <v>9665.5569400616387</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
@@ -7325,7 +7325,7 @@
       </c>
       <c r="E66">
         <f t="shared" si="2"/>
-        <v>28974.51883915002</v>
+        <v>9658.1729463833399</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
@@ -7344,8 +7344,8 @@
         <v>0.82200339415763135</v>
       </c>
       <c r="E67">
-        <f t="shared" ref="E67:E130" si="5">A67*(24/4)*30</f>
-        <v>28962.859958982543</v>
+        <f t="shared" ref="E67:E130" si="5">A67*(24/12)*30</f>
+        <v>9654.2866529941803</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
@@ -7365,7 +7365,7 @@
       </c>
       <c r="E68">
         <f t="shared" si="5"/>
-        <v>28951.14769918632</v>
+        <v>9650.3825663954412</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
@@ -7385,7 +7385,7 @@
       </c>
       <c r="E69">
         <f t="shared" si="5"/>
-        <v>28943.436408763679</v>
+        <v>9647.8121362545589</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
@@ -7405,7 +7405,7 @@
       </c>
       <c r="E70">
         <f t="shared" si="5"/>
-        <v>28940.880858803099</v>
+        <v>9646.9602862676984</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
@@ -7425,7 +7425,7 @@
       </c>
       <c r="E71">
         <f t="shared" si="5"/>
-        <v>28932.831664981739</v>
+        <v>9644.277221660579</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
@@ -7445,7 +7445,7 @@
       </c>
       <c r="E72">
         <f t="shared" si="5"/>
-        <v>28906.787070068582</v>
+        <v>9635.5956900228593</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
@@ -7465,7 +7465,7 @@
       </c>
       <c r="E73">
         <f t="shared" si="5"/>
-        <v>28875.97977005412</v>
+        <v>9625.3265900180413</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
@@ -7485,7 +7485,7 @@
       </c>
       <c r="E74">
         <f t="shared" si="5"/>
-        <v>28858.003618990679</v>
+        <v>9619.3345396635596</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
@@ -7505,7 +7505,7 @@
       </c>
       <c r="E75">
         <f t="shared" si="5"/>
-        <v>28854.366549382801</v>
+        <v>9618.1221831276016</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
@@ -7525,7 +7525,7 @@
       </c>
       <c r="E76">
         <f t="shared" si="5"/>
-        <v>28840.272749409774</v>
+        <v>9613.42424980326</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
@@ -7545,7 +7545,7 @@
       </c>
       <c r="E77">
         <f t="shared" si="5"/>
-        <v>28836.046493971196</v>
+        <v>9612.0154979904</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
@@ -7565,7 +7565,7 @@
       </c>
       <c r="E78">
         <f t="shared" si="5"/>
-        <v>28824.032892879542</v>
+        <v>9608.0109642931802</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
@@ -7585,7 +7585,7 @@
       </c>
       <c r="E79">
         <f t="shared" si="5"/>
-        <v>28821.508361093162</v>
+        <v>9607.1694536977211</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
@@ -7605,7 +7605,7 @@
       </c>
       <c r="E80">
         <f t="shared" si="5"/>
-        <v>28797.348545945821</v>
+        <v>9599.116181981939</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
@@ -7625,7 +7625,7 @@
       </c>
       <c r="E81">
         <f t="shared" si="5"/>
-        <v>28783.522311226559</v>
+        <v>9594.507437075521</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
@@ -7645,7 +7645,7 @@
       </c>
       <c r="E82">
         <f t="shared" si="5"/>
-        <v>28775.98897419258</v>
+        <v>9591.9963247308606</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
@@ -7665,7 +7665,7 @@
       </c>
       <c r="E83">
         <f t="shared" si="5"/>
-        <v>28757.968442189282</v>
+        <v>9585.9894807297605</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
@@ -7685,7 +7685,7 @@
       </c>
       <c r="E84">
         <f t="shared" si="5"/>
-        <v>28742.008033564918</v>
+        <v>9580.6693445216406</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
@@ -7705,7 +7705,7 @@
       </c>
       <c r="E85">
         <f t="shared" si="5"/>
-        <v>28728.830796372356</v>
+        <v>9576.2769321241194</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
@@ -7725,7 +7725,7 @@
       </c>
       <c r="E86">
         <f t="shared" si="5"/>
-        <v>28718.412435070019</v>
+        <v>9572.8041450233395</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
@@ -7745,7 +7745,7 @@
       </c>
       <c r="E87">
         <f t="shared" si="5"/>
-        <v>28694.194735741381</v>
+        <v>9564.7315785804603</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
@@ -7765,7 +7765,7 @@
       </c>
       <c r="E88">
         <f t="shared" si="5"/>
-        <v>28676.463564636902</v>
+        <v>9558.8211882122996</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
@@ -7785,7 +7785,7 @@
       </c>
       <c r="E89">
         <f t="shared" si="5"/>
-        <v>28674.862338192841</v>
+        <v>9558.2874460642815</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
@@ -7805,7 +7805,7 @@
       </c>
       <c r="E90">
         <f t="shared" si="5"/>
-        <v>28663.83082744704</v>
+        <v>9554.6102758156812</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
@@ -7825,7 +7825,7 @@
       </c>
       <c r="E91">
         <f t="shared" si="5"/>
-        <v>28649.061973204382</v>
+        <v>9549.6873244014605</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
@@ -7845,7 +7845,7 @@
       </c>
       <c r="E92">
         <f t="shared" si="5"/>
-        <v>28621.919755491119</v>
+        <v>9540.6399184970396</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
@@ -7865,7 +7865,7 @@
       </c>
       <c r="E93">
         <f t="shared" si="5"/>
-        <v>28587.029560699139</v>
+        <v>9529.0098535663801</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
@@ -7885,7 +7885,7 @@
       </c>
       <c r="E94">
         <f t="shared" si="5"/>
-        <v>28574.863910316184</v>
+        <v>9524.9546367720595</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
@@ -7905,7 +7905,7 @@
       </c>
       <c r="E95">
         <f t="shared" si="5"/>
-        <v>28559.546252825581</v>
+        <v>9519.8487509418592</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
@@ -7925,7 +7925,7 @@
       </c>
       <c r="E96">
         <f t="shared" si="5"/>
-        <v>28554.1115946957</v>
+        <v>9518.0371982319011</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
@@ -7945,7 +7945,7 @@
       </c>
       <c r="E97">
         <f t="shared" si="5"/>
-        <v>28520.479190116439</v>
+        <v>9506.8263967054791</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
@@ -7965,7 +7965,7 @@
       </c>
       <c r="E98">
         <f t="shared" si="5"/>
-        <v>28515.558245067539</v>
+        <v>9505.1860816891785</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
@@ -7985,7 +7985,7 @@
       </c>
       <c r="E99">
         <f t="shared" si="5"/>
-        <v>28495.56385290618</v>
+        <v>9498.5212843020599</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
@@ -8005,7 +8005,7 @@
       </c>
       <c r="E100">
         <f t="shared" si="5"/>
-        <v>28477.9345523499</v>
+        <v>9492.6448507832993</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
@@ -8025,7 +8025,7 @@
       </c>
       <c r="E101">
         <f t="shared" si="5"/>
-        <v>28449.434831941981</v>
+        <v>9483.1449439806602</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
@@ -8045,7 +8045,7 @@
       </c>
       <c r="E102">
         <f t="shared" si="5"/>
-        <v>28431.149186178358</v>
+        <v>9477.0497287261205</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
@@ -8065,7 +8065,7 @@
       </c>
       <c r="E103">
         <f t="shared" si="5"/>
-        <v>28427.017481164799</v>
+        <v>9475.6724937215986</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
@@ -8085,7 +8085,7 @@
       </c>
       <c r="E104">
         <f t="shared" si="5"/>
-        <v>28426.776967314181</v>
+        <v>9475.5923224380604</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
@@ -8105,7 +8105,7 @@
       </c>
       <c r="E105">
         <f t="shared" si="5"/>
-        <v>28403.021016752216</v>
+        <v>9467.6736722507394</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
@@ -8125,7 +8125,7 @@
       </c>
       <c r="E106">
         <f t="shared" si="5"/>
-        <v>28374.677615926081</v>
+        <v>9458.225871975359</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
@@ -8145,7 +8145,7 @@
       </c>
       <c r="E107">
         <f t="shared" si="5"/>
-        <v>28358.671647675241</v>
+        <v>9452.8905492250815</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
@@ -8165,7 +8165,7 @@
       </c>
       <c r="E108">
         <f t="shared" si="5"/>
-        <v>28342.811832528598</v>
+        <v>9447.6039441762005</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
@@ -8185,7 +8185,7 @@
       </c>
       <c r="E109">
         <f t="shared" si="5"/>
-        <v>28336.383513598499</v>
+        <v>9445.4611711994985</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
@@ -8205,7 +8205,7 @@
       </c>
       <c r="E110">
         <f t="shared" si="5"/>
-        <v>28326.568560864478</v>
+        <v>9442.1895202881606</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
@@ -8225,7 +8225,7 @@
       </c>
       <c r="E111">
         <f t="shared" si="5"/>
-        <v>28311.85925599284</v>
+        <v>9437.2864186642801</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
@@ -8245,7 +8245,7 @@
       </c>
       <c r="E112">
         <f t="shared" si="5"/>
-        <v>28292.06096833284</v>
+        <v>9430.6869894442807</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
@@ -8265,7 +8265,7 @@
       </c>
       <c r="E113">
         <f t="shared" si="5"/>
-        <v>28280.883632480098</v>
+        <v>9426.9612108266992</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
@@ -8285,7 +8285,7 @@
       </c>
       <c r="E114">
         <f t="shared" si="5"/>
-        <v>28273.14081624258</v>
+        <v>9424.3802720808599</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
@@ -8305,7 +8305,7 @@
       </c>
       <c r="E115">
         <f t="shared" si="5"/>
-        <v>28261.872550580585</v>
+        <v>9420.6241835268611</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
@@ -8325,7 +8325,7 @@
       </c>
       <c r="E116">
         <f t="shared" si="5"/>
-        <v>28231.445365157881</v>
+        <v>9410.4817883859596</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
@@ -8345,7 +8345,7 @@
       </c>
       <c r="E117">
         <f t="shared" si="5"/>
-        <v>28213.647327133203</v>
+        <v>9404.5491090444011</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
@@ -8365,7 +8365,7 @@
       </c>
       <c r="E118">
         <f t="shared" si="5"/>
-        <v>28202.645148016141</v>
+        <v>9400.8817160053804</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
@@ -8385,7 +8385,7 @@
       </c>
       <c r="E119">
         <f t="shared" si="5"/>
-        <v>28185.346816674657</v>
+        <v>9395.1156055582196</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
@@ -8405,7 +8405,7 @@
       </c>
       <c r="E120">
         <f t="shared" si="5"/>
-        <v>28175.329503816836</v>
+        <v>9391.7765012722793</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
@@ -8425,7 +8425,7 @@
       </c>
       <c r="E121">
         <f t="shared" si="5"/>
-        <v>28162.943493591956</v>
+        <v>9387.6478311973187</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
@@ -8445,7 +8445,7 @@
       </c>
       <c r="E122">
         <f t="shared" si="5"/>
-        <v>28160.416710695343</v>
+        <v>9386.8055702317797</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
@@ -8465,7 +8465,7 @@
       </c>
       <c r="E123">
         <f t="shared" si="5"/>
-        <v>28149.190641061199</v>
+        <v>9383.0635470203997</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
@@ -8485,7 +8485,7 @@
       </c>
       <c r="E124">
         <f t="shared" si="5"/>
-        <v>28133.987272687078</v>
+        <v>9377.9957575623594</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
@@ -8505,7 +8505,7 @@
       </c>
       <c r="E125">
         <f t="shared" si="5"/>
-        <v>28095.523210707477</v>
+        <v>9365.174403569159</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
@@ -8525,7 +8525,7 @@
       </c>
       <c r="E126">
         <f t="shared" si="5"/>
-        <v>28086.160551875284</v>
+        <v>9362.0535172917607</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
@@ -8545,7 +8545,7 @@
       </c>
       <c r="E127">
         <f t="shared" si="5"/>
-        <v>28075.75887536442</v>
+        <v>9358.5862917881386</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
@@ -8565,7 +8565,7 @@
       </c>
       <c r="E128">
         <f t="shared" si="5"/>
-        <v>28034.176633978685</v>
+        <v>9344.7255446595609</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
@@ -8585,7 +8585,7 @@
       </c>
       <c r="E129">
         <f t="shared" si="5"/>
-        <v>28011.403516226404</v>
+        <v>9337.1345054087997</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
@@ -8605,7 +8605,7 @@
       </c>
       <c r="E130">
         <f t="shared" si="5"/>
-        <v>27999.976839857281</v>
+        <v>9333.3256132857605</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
@@ -8616,7 +8616,7 @@
         <v>1.81005356213504</v>
       </c>
       <c r="C131">
-        <f t="shared" ref="C131:C179" si="35">1/B131</f>
+        <f t="shared" ref="C131:C175" si="35">1/B131</f>
         <v>0.55246983897009916</v>
       </c>
       <c r="D131">
@@ -8624,8 +8624,8 @@
         <v>0.27173629424707468</v>
       </c>
       <c r="E131">
-        <f t="shared" ref="E131:E179" si="37">A131*(24/4)*30</f>
-        <v>27991.562023607217</v>
+        <f t="shared" ref="E131:E175" si="37">A131*(24/12)*30</f>
+        <v>9330.5206745357409</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
@@ -8645,7 +8645,7 @@
       </c>
       <c r="E132">
         <f t="shared" si="37"/>
-        <v>27984.072560827859</v>
+        <v>9328.0241869426191</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
@@ -8665,7 +8665,7 @@
       </c>
       <c r="E133">
         <f t="shared" si="37"/>
-        <v>27971.97929745588</v>
+        <v>9323.9930991519614</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
@@ -8685,7 +8685,7 @@
       </c>
       <c r="E134">
         <f t="shared" si="37"/>
-        <v>27963.021552017941</v>
+        <v>9321.0071840059791</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
@@ -8705,7 +8705,7 @@
       </c>
       <c r="E135">
         <f t="shared" si="37"/>
-        <v>27953.495252160483</v>
+        <v>9317.8317507201609</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
@@ -8725,7 +8725,7 @@
       </c>
       <c r="E136">
         <f t="shared" si="37"/>
-        <v>27942.091735485421</v>
+        <v>9314.0305784951415</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
@@ -8745,7 +8745,7 @@
       </c>
       <c r="E137">
         <f t="shared" si="37"/>
-        <v>27934.239759405835</v>
+        <v>9311.4132531352789</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
@@ -8765,7 +8765,7 @@
       </c>
       <c r="E138">
         <f t="shared" si="37"/>
-        <v>27928.3857449598</v>
+        <v>9309.4619149866012</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
@@ -8785,7 +8785,7 @@
       </c>
       <c r="E139">
         <f t="shared" si="37"/>
-        <v>27896.825442282479</v>
+        <v>9298.9418140941598</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
@@ -8805,7 +8805,7 @@
       </c>
       <c r="E140">
         <f t="shared" si="37"/>
-        <v>27879.383215835638</v>
+        <v>9293.12773861188</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
@@ -8825,7 +8825,7 @@
       </c>
       <c r="E141">
         <f t="shared" si="37"/>
-        <v>27862.832943652862</v>
+        <v>9287.6109812176201</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
@@ -8845,7 +8845,7 @@
       </c>
       <c r="E142">
         <f t="shared" si="37"/>
-        <v>27832.895773039803</v>
+        <v>9277.6319243466005</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
@@ -8865,7 +8865,7 @@
       </c>
       <c r="E143">
         <f t="shared" si="37"/>
-        <v>27820.035971085239</v>
+        <v>9273.3453236950809</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
@@ -8885,7 +8885,7 @@
       </c>
       <c r="E144">
         <f t="shared" si="37"/>
-        <v>27797.34653275536</v>
+        <v>9265.7821775851207</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
@@ -8905,7 +8905,7 @@
       </c>
       <c r="E145">
         <f t="shared" si="37"/>
-        <v>27785.905799886536</v>
+        <v>9261.9685999621797</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
@@ -8925,7 +8925,7 @@
       </c>
       <c r="E146">
         <f t="shared" si="37"/>
-        <v>27763.909497040324</v>
+        <v>9254.6364990134407</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
@@ -8945,7 +8945,7 @@
       </c>
       <c r="E147">
         <f t="shared" si="37"/>
-        <v>27761.151805643163</v>
+        <v>9253.7172685477199</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
@@ -8965,7 +8965,7 @@
       </c>
       <c r="E148">
         <f t="shared" si="37"/>
-        <v>27746.827543488063</v>
+        <v>9248.9425144960205</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
@@ -8985,7 +8985,7 @@
       </c>
       <c r="E149">
         <f t="shared" si="37"/>
-        <v>27746.615782874338</v>
+        <v>9248.8719276247793</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
@@ -9005,7 +9005,7 @@
       </c>
       <c r="E150">
         <f t="shared" si="37"/>
-        <v>27725.419786494243</v>
+        <v>9241.8065954980793</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
@@ -9025,7 +9025,7 @@
       </c>
       <c r="E151">
         <f t="shared" si="37"/>
-        <v>27720.404488084499</v>
+        <v>9240.1348293614992</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
@@ -9045,7 +9045,7 @@
       </c>
       <c r="E152">
         <f t="shared" si="37"/>
-        <v>27712.534138344363</v>
+        <v>9237.5113794481204</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
@@ -9065,7 +9065,7 @@
       </c>
       <c r="E153">
         <f t="shared" si="37"/>
-        <v>27704.711501096943</v>
+        <v>9234.9038336989797</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
@@ -9085,7 +9085,7 @@
       </c>
       <c r="E154">
         <f t="shared" si="37"/>
-        <v>27694.212463561857</v>
+        <v>9231.4041545206201</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
@@ -9105,7 +9105,7 @@
       </c>
       <c r="E155">
         <f t="shared" si="37"/>
-        <v>27662.150465675277</v>
+        <v>9220.7168218917595</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
@@ -9125,7 +9125,7 @@
       </c>
       <c r="E156">
         <f t="shared" si="37"/>
-        <v>27650.218402909981</v>
+        <v>9216.7394676366603</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
@@ -9145,7 +9145,7 @@
       </c>
       <c r="E157">
         <f t="shared" si="37"/>
-        <v>27639.306855411662</v>
+        <v>9213.10228513722</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
@@ -9165,7 +9165,7 @@
       </c>
       <c r="E158">
         <f t="shared" si="37"/>
-        <v>27628.966927821239</v>
+        <v>9209.6556426070802</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
@@ -9185,7 +9185,7 @@
       </c>
       <c r="E159">
         <f t="shared" si="37"/>
-        <v>27603.042533411397</v>
+        <v>9201.0141778037996</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
@@ -9205,7 +9205,7 @@
       </c>
       <c r="E160">
         <f t="shared" si="37"/>
-        <v>27594.114222926517</v>
+        <v>9198.038074308839</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.25">
@@ -9225,7 +9225,7 @@
       </c>
       <c r="E161">
         <f t="shared" si="37"/>
-        <v>27564.213007193401</v>
+        <v>9188.071002397799</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.25">
@@ -9245,7 +9245,7 @@
       </c>
       <c r="E162">
         <f t="shared" si="37"/>
-        <v>27554.218180037456</v>
+        <v>9184.7393933458188</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
@@ -9265,7 +9265,7 @@
       </c>
       <c r="E163">
         <f t="shared" si="37"/>
-        <v>27531.273105453238</v>
+        <v>9177.0910351510793</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
@@ -9285,7 +9285,7 @@
       </c>
       <c r="E164">
         <f t="shared" si="37"/>
-        <v>27519.648911207642</v>
+        <v>9173.2163037358805</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
@@ -9305,7 +9305,7 @@
       </c>
       <c r="E165">
         <f t="shared" si="37"/>
-        <v>27499.524782743076</v>
+        <v>9166.5082609143592</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
@@ -9325,7 +9325,7 @@
       </c>
       <c r="E166">
         <f t="shared" si="37"/>
-        <v>27488.289731837944</v>
+        <v>9162.7632439459812</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
@@ -9345,7 +9345,7 @@
       </c>
       <c r="E167">
         <f t="shared" si="37"/>
-        <v>27475.616269754279</v>
+        <v>9158.5387565847595</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
@@ -9365,7 +9365,7 @@
       </c>
       <c r="E168">
         <f t="shared" si="37"/>
-        <v>27471.242960436957</v>
+        <v>9157.0809868123197</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
@@ -9385,7 +9385,7 @@
       </c>
       <c r="E169">
         <f t="shared" si="37"/>
-        <v>27469.148154470276</v>
+        <v>9156.3827181567594</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
@@ -9405,7 +9405,7 @@
       </c>
       <c r="E170">
         <f t="shared" si="37"/>
-        <v>27447.988326959879</v>
+        <v>9149.3294423199604</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
@@ -9425,7 +9425,7 @@
       </c>
       <c r="E171">
         <f t="shared" si="37"/>
-        <v>27426.04422783768</v>
+        <v>9142.0147426125604</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.25">
@@ -9445,7 +9445,7 @@
       </c>
       <c r="E172">
         <f t="shared" si="37"/>
-        <v>27399.667146636599</v>
+        <v>9133.2223822121996</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.25">
@@ -9465,7 +9465,7 @@
       </c>
       <c r="E173">
         <f t="shared" si="37"/>
-        <v>27385.448130178382</v>
+        <v>9128.4827100594612</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.25">
@@ -9485,7 +9485,7 @@
       </c>
       <c r="E174">
         <f t="shared" si="37"/>
-        <v>27354.120505463878</v>
+        <v>9118.0401684879598</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.25">
@@ -9505,7 +9505,7 @@
       </c>
       <c r="E175">
         <f t="shared" si="37"/>
-        <v>27329.019301943459</v>
+        <v>9109.6731006478185</v>
       </c>
     </row>
   </sheetData>
@@ -9523,7 +9523,7 @@
   <dimension ref="A1:F129"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9570,12 +9570,12 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <f>A2*(24/4)*30</f>
-        <v>119885.86320066197</v>
+        <f>A2*(24/12)*30</f>
+        <v>39961.954400220653</v>
       </c>
       <c r="F2">
         <f>E2/4</f>
-        <v>29971.465800165493</v>
+        <v>9990.4886000551633</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -9594,8 +9594,8 @@
         <v>1</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E66" si="2">A3*(24/4)*30</f>
-        <v>119885.86320066197</v>
+        <f>A3*(24/12)*30</f>
+        <v>39961.954400220653</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -9614,8 +9614,8 @@
         <v>0.99499869386970541</v>
       </c>
       <c r="E4">
-        <f t="shared" si="2"/>
-        <v>119735.82640954998</v>
+        <f>A4*(24/12)*30</f>
+        <v>39911.942136516656</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -9634,8 +9634,8 @@
         <v>0.99412716562998149</v>
       </c>
       <c r="E5">
-        <f t="shared" si="2"/>
-        <v>119712.2531050231</v>
+        <f>A5*(24/12)*30</f>
+        <v>39904.084368341042</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -9654,8 +9654,8 @@
         <v>0.99280514032613132</v>
       </c>
       <c r="E6">
-        <f t="shared" si="2"/>
-        <v>118949.34197296045</v>
+        <f>A6*(24/12)*30</f>
+        <v>39649.780657653479</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -9674,8 +9674,8 @@
         <v>0.98128620993972215</v>
       </c>
       <c r="E7">
-        <f t="shared" si="2"/>
-        <v>118611.09580410739</v>
+        <f>A7*(24/12)*30</f>
+        <v>39537.031934702463</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -9694,8 +9694,8 @@
         <v>0.97865706975450939</v>
       </c>
       <c r="E8">
-        <f t="shared" si="2"/>
-        <v>118508.57215490195</v>
+        <f>A8*(24/12)*30</f>
+        <v>39502.857384967319</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -9714,8 +9714,8 @@
         <v>0.96916597403772808</v>
       </c>
       <c r="E9">
-        <f t="shared" si="2"/>
-        <v>118407.42790957367</v>
+        <f>A9*(24/12)*30</f>
+        <v>39469.142636524557</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -9734,8 +9734,8 @@
         <v>0.96586188660966454</v>
       </c>
       <c r="E10">
-        <f t="shared" si="2"/>
-        <v>118273.77197072549</v>
+        <f>A10*(24/12)*30</f>
+        <v>39424.590656908498</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -9754,8 +9754,8 @@
         <v>0.96139310436875192</v>
       </c>
       <c r="E11">
-        <f t="shared" si="2"/>
-        <v>117860.01811960968</v>
+        <f>A11*(24/12)*30</f>
+        <v>39286.672706536563</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -9774,8 +9774,8 @@
         <v>0.95424299889797937</v>
       </c>
       <c r="E12">
-        <f t="shared" si="2"/>
-        <v>117739.90634757714</v>
+        <f>A12*(24/12)*30</f>
+        <v>39246.635449192378</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -9794,8 +9794,8 @@
         <v>0.94500205535582105</v>
       </c>
       <c r="E13">
-        <f t="shared" si="2"/>
-        <v>117446.51137289364</v>
+        <f>A13*(24/12)*30</f>
+        <v>39148.837124297876</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -9814,8 +9814,8 @@
         <v>0.93477943368661576</v>
       </c>
       <c r="E14">
-        <f t="shared" si="2"/>
-        <v>117322.39063743193</v>
+        <f>A14*(24/12)*30</f>
+        <v>39107.463545810642</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -9834,8 +9834,8 @@
         <v>0.93232816387581796</v>
       </c>
       <c r="E15">
-        <f t="shared" si="2"/>
-        <v>117225.81393564548</v>
+        <f>A15*(24/12)*30</f>
+        <v>39075.271311881821</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -9854,8 +9854,8 @@
         <v>0.92297651222825439</v>
       </c>
       <c r="E16">
-        <f t="shared" si="2"/>
-        <v>117148.45425897096</v>
+        <f>A16*(24/12)*30</f>
+        <v>39049.48475299032</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -9874,8 +9874,8 @@
         <v>0.92091556447062362</v>
       </c>
       <c r="E17">
-        <f t="shared" si="2"/>
-        <v>116990.33369598287</v>
+        <f>A17*(24/12)*30</f>
+        <v>38996.777898660963</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -9894,8 +9894,8 @@
         <v>0.90956903760039454</v>
       </c>
       <c r="E18">
-        <f t="shared" si="2"/>
-        <v>116899.71564134771</v>
+        <f>A18*(24/12)*30</f>
+        <v>38966.571880449235</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -9914,8 +9914,8 @@
         <v>0.90720088201968174</v>
       </c>
       <c r="E19">
-        <f t="shared" si="2"/>
-        <v>116844.30493568929</v>
+        <f>A19*(24/12)*30</f>
+        <v>38948.101645229763</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -9934,8 +9934,8 @@
         <v>0.90435657143476655</v>
       </c>
       <c r="E20">
-        <f t="shared" si="2"/>
-        <v>116770.78131054335</v>
+        <f>A20*(24/12)*30</f>
+        <v>38923.59377018112</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -9954,8 +9954,8 @@
         <v>0.89844069444364172</v>
       </c>
       <c r="E21">
-        <f t="shared" si="2"/>
-        <v>116414.90795877643</v>
+        <f>A21*(24/12)*30</f>
+        <v>38804.969319592143</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -9974,8 +9974,8 @@
         <v>0.89101358101165296</v>
       </c>
       <c r="E22">
-        <f t="shared" si="2"/>
-        <v>116251.1463981222</v>
+        <f>A22*(24/12)*30</f>
+        <v>38750.382132707404</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -9994,8 +9994,8 @@
         <v>0.87399131484643744</v>
       </c>
       <c r="E23">
-        <f t="shared" si="2"/>
-        <v>116104.71418807824</v>
+        <f>A23*(24/12)*30</f>
+        <v>38701.571396026084</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -10014,8 +10014,8 @@
         <v>0.86606523191359119</v>
       </c>
       <c r="E24">
-        <f t="shared" si="2"/>
-        <v>115884.17146714788</v>
+        <f>A24*(24/12)*30</f>
+        <v>38628.057155715964</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -10034,8 +10034,8 @@
         <v>0.86045130676304737</v>
       </c>
       <c r="E25">
-        <f t="shared" si="2"/>
-        <v>115601.35521362994</v>
+        <f>A25*(24/12)*30</f>
+        <v>38533.785071209983</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -10054,8 +10054,8 @@
         <v>0.85773734410640168</v>
       </c>
       <c r="E26">
-        <f t="shared" si="2"/>
-        <v>115457.91522469668</v>
+        <f>A26*(24/12)*30</f>
+        <v>38485.971741565561</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -10074,8 +10074,8 @@
         <v>0.85510960990643758</v>
       </c>
       <c r="E27">
-        <f t="shared" si="2"/>
-        <v>115428.86891933688</v>
+        <f>A27*(24/12)*30</f>
+        <v>38476.289639778966</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -10094,8 +10094,8 @@
         <v>0.84837311921604197</v>
       </c>
       <c r="E28">
-        <f t="shared" si="2"/>
-        <v>115239.50149604742</v>
+        <f>A28*(24/12)*30</f>
+        <v>38413.167165349143</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -10114,8 +10114,8 @@
         <v>0.84344650089914686</v>
       </c>
       <c r="E29">
-        <f t="shared" si="2"/>
-        <v>115156.24391892528</v>
+        <f>A29*(24/12)*30</f>
+        <v>38385.414639641764</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -10134,8 +10134,8 @@
         <v>0.83906274937192993</v>
       </c>
       <c r="E30">
-        <f t="shared" si="2"/>
-        <v>115121.55736990008</v>
+        <f>A30*(24/12)*30</f>
+        <v>38373.852456633358</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -10154,8 +10154,8 @@
         <v>0.83385472296625873</v>
       </c>
       <c r="E31">
-        <f t="shared" si="2"/>
-        <v>115055.21022118434</v>
+        <f>A31*(24/12)*30</f>
+        <v>38351.736740394786</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -10174,8 +10174,8 @@
         <v>0.82842376508140902</v>
       </c>
       <c r="E32">
-        <f t="shared" si="2"/>
-        <v>115005.69305928037</v>
+        <f>A32*(24/12)*30</f>
+        <v>38335.231019760118</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -10194,8 +10194,8 @@
         <v>0.82482051735731987</v>
       </c>
       <c r="E33">
-        <f t="shared" si="2"/>
-        <v>114899.10163626366</v>
+        <f>A33*(24/12)*30</f>
+        <v>38299.700545421219</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -10214,8 +10214,8 @@
         <v>0.81526055400587261</v>
       </c>
       <c r="E34">
-        <f t="shared" si="2"/>
-        <v>114784.00098137693</v>
+        <f>A34*(24/12)*30</f>
+        <v>38261.333660458979</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -10234,8 +10234,8 @@
         <v>0.81237850838493597</v>
       </c>
       <c r="E35">
-        <f t="shared" si="2"/>
-        <v>114690.28621262618</v>
+        <f>A35*(24/12)*30</f>
+        <v>38230.095404208725</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -10254,8 +10254,8 @@
         <v>0.80502913989835245</v>
       </c>
       <c r="E36">
-        <f t="shared" si="2"/>
-        <v>114618.10159371041</v>
+        <f>A36*(24/12)*30</f>
+        <v>38206.033864570141</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -10274,8 +10274,8 @@
         <v>0.79825433108883581</v>
       </c>
       <c r="E37">
-        <f t="shared" si="2"/>
-        <v>114489.7393020624</v>
+        <f>A37*(24/12)*30</f>
+        <v>38163.246434020803</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -10294,8 +10294,8 @@
         <v>0.79046152759194876</v>
       </c>
       <c r="E38">
-        <f t="shared" si="2"/>
-        <v>114424.84739012599</v>
+        <f>A38*(24/12)*30</f>
+        <v>38141.615796708662</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -10314,8 +10314,8 @@
         <v>0.78744452762142803</v>
       </c>
       <c r="E39">
-        <f t="shared" si="2"/>
-        <v>114343.39601981838</v>
+        <f>A39*(24/12)*30</f>
+        <v>38114.465339939459</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -10334,8 +10334,8 @@
         <v>0.77963460846520871</v>
       </c>
       <c r="E40">
-        <f t="shared" si="2"/>
-        <v>114274.0399517928</v>
+        <f>A40*(24/12)*30</f>
+        <v>38091.346650597603</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -10354,8 +10354,8 @@
         <v>0.77238418796271102</v>
       </c>
       <c r="E41">
-        <f t="shared" si="2"/>
-        <v>114232.06158369317</v>
+        <f>A41*(24/12)*30</f>
+        <v>38077.353861231059</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
@@ -10374,8 +10374,8 @@
         <v>0.76334018103907852</v>
       </c>
       <c r="E42">
-        <f t="shared" si="2"/>
-        <v>114213.88387014966</v>
+        <f>A42*(24/12)*30</f>
+        <v>38071.294623383219</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
@@ -10394,8 +10394,8 @@
         <v>0.76002955448485443</v>
       </c>
       <c r="E43">
-        <f t="shared" si="2"/>
-        <v>114190.45428960072</v>
+        <f>A43*(24/12)*30</f>
+        <v>38063.484763200242</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
@@ -10414,8 +10414,8 @@
         <v>0.75036428867678395</v>
       </c>
       <c r="E44">
-        <f t="shared" si="2"/>
-        <v>114148.29754919322</v>
+        <f>A44*(24/12)*30</f>
+        <v>38049.432516397734</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
@@ -10434,8 +10434,8 @@
         <v>0.74676411676822441</v>
       </c>
       <c r="E45">
-        <f t="shared" si="2"/>
-        <v>114077.36359077858</v>
+        <f>A45*(24/12)*30</f>
+        <v>38025.787863592857</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
@@ -10454,8 +10454,8 @@
         <v>0.7438363096519357</v>
       </c>
       <c r="E46">
-        <f t="shared" si="2"/>
-        <v>114037.62618642156</v>
+        <f>A46*(24/12)*30</f>
+        <v>38012.542062140514</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
@@ -10474,8 +10474,8 @@
         <v>0.7428450198381582</v>
       </c>
       <c r="E47">
-        <f t="shared" si="2"/>
-        <v>113951.72541528485</v>
+        <f>A47*(24/12)*30</f>
+        <v>37983.908471761621</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -10494,8 +10494,8 @@
         <v>0.73352396580247603</v>
       </c>
       <c r="E48">
-        <f t="shared" si="2"/>
-        <v>113914.59141569995</v>
+        <f>A48*(24/12)*30</f>
+        <v>37971.530471899983</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
@@ -10514,8 +10514,8 @@
         <v>0.72857185372018596</v>
       </c>
       <c r="E49">
-        <f t="shared" si="2"/>
-        <v>113765.27760490032</v>
+        <f>A49*(24/12)*30</f>
+        <v>37921.759201633438</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -10534,8 +10534,8 @@
         <v>0.72027802885281234</v>
       </c>
       <c r="E50">
-        <f t="shared" si="2"/>
-        <v>113662.59544405909</v>
+        <f>A50*(24/12)*30</f>
+        <v>37887.531814686365</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -10554,8 +10554,8 @@
         <v>0.71260562224048096</v>
       </c>
       <c r="E51">
-        <f t="shared" si="2"/>
-        <v>113575.96188012601</v>
+        <f>A51*(24/12)*30</f>
+        <v>37858.653960042</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
@@ -10574,8 +10574,8 @@
         <v>0.70525084692649598</v>
       </c>
       <c r="E52">
-        <f t="shared" si="2"/>
-        <v>113505.97135885291</v>
+        <f>A52*(24/12)*30</f>
+        <v>37835.323786284302</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
@@ -10594,8 +10594,8 @@
         <v>0.69849091144271069</v>
       </c>
       <c r="E53">
-        <f t="shared" si="2"/>
-        <v>113418.75935141297</v>
+        <f>A53*(24/12)*30</f>
+        <v>37806.253117137661</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
@@ -10614,8 +10614,8 @@
         <v>0.69533105025487574</v>
       </c>
       <c r="E54">
-        <f t="shared" si="2"/>
-        <v>113349.16041404993</v>
+        <f>A54*(24/12)*30</f>
+        <v>37783.05347134998</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
@@ -10634,8 +10634,8 @@
         <v>0.68460639262629597</v>
       </c>
       <c r="E55">
-        <f t="shared" si="2"/>
-        <v>113191.74864430129</v>
+        <f>A55*(24/12)*30</f>
+        <v>37730.582881433758</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
@@ -10654,8 +10654,8 @@
         <v>0.66916075386602791</v>
       </c>
       <c r="E56">
-        <f t="shared" si="2"/>
-        <v>113108.91262127963</v>
+        <f>A56*(24/12)*30</f>
+        <v>37702.970873759878</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
@@ -10674,8 +10674,8 @@
         <v>0.6626127333704962</v>
       </c>
       <c r="E57">
-        <f t="shared" si="2"/>
-        <v>113060.84982455557</v>
+        <f>A57*(24/12)*30</f>
+        <v>37686.94994151852</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
@@ -10694,8 +10694,8 @@
         <v>0.6564874634487543</v>
       </c>
       <c r="E58">
-        <f t="shared" si="2"/>
-        <v>113026.41885642192</v>
+        <f>A58*(24/12)*30</f>
+        <v>37675.472952140641</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
@@ -10714,8 +10714,8 @@
         <v>0.64702524774251358</v>
       </c>
       <c r="E59">
-        <f t="shared" si="2"/>
-        <v>112907.36306938123</v>
+        <f>A59*(24/12)*30</f>
+        <v>37635.787689793739</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
@@ -10734,8 +10734,8 @@
         <v>0.63375163940064505</v>
       </c>
       <c r="E60">
-        <f t="shared" si="2"/>
-        <v>112881.50814423186</v>
+        <f>A60*(24/12)*30</f>
+        <v>37627.169381410626</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
@@ -10754,8 +10754,8 @@
         <v>0.62239514032094367</v>
       </c>
       <c r="E61">
-        <f t="shared" si="2"/>
-        <v>112802.66076104442</v>
+        <f>A61*(24/12)*30</f>
+        <v>37600.886920348137</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
@@ -10774,8 +10774,8 @@
         <v>0.60962446427015426</v>
       </c>
       <c r="E62">
-        <f t="shared" si="2"/>
-        <v>112715.13391759926</v>
+        <f>A62*(24/12)*30</f>
+        <v>37571.711305866418</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
@@ -10794,8 +10794,8 @@
         <v>0.60324084829308244</v>
       </c>
       <c r="E63">
-        <f t="shared" si="2"/>
-        <v>112667.47145519292</v>
+        <f>A63*(24/12)*30</f>
+        <v>37555.823818397643</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
@@ -10814,8 +10814,8 @@
         <v>0.59689448880393903</v>
       </c>
       <c r="E64">
-        <f t="shared" si="2"/>
-        <v>112579.2218094921</v>
+        <f>A64*(24/12)*30</f>
+        <v>37526.407269830699</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
@@ -10834,8 +10834,8 @@
         <v>0.59037134398295443</v>
       </c>
       <c r="E65">
-        <f t="shared" si="2"/>
-        <v>112549.99671827946</v>
+        <f>A65*(24/12)*30</f>
+        <v>37516.665572759819</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
@@ -10854,8 +10854,8 @@
         <v>0.58434071494184447</v>
       </c>
       <c r="E66">
-        <f t="shared" si="2"/>
-        <v>112483.37462085306</v>
+        <f>A66*(24/12)*30</f>
+        <v>37494.458206951022</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
@@ -10866,16 +10866,16 @@
         <v>1.51255018646521</v>
       </c>
       <c r="C67">
-        <f t="shared" ref="C67:C130" si="3">1/B67</f>
+        <f t="shared" ref="C67:C129" si="2">1/B67</f>
         <v>0.66113508758144002</v>
       </c>
       <c r="D67">
-        <f t="shared" ref="D67:D130" si="4">(C67-MIN(C:C))/(MAX(C:C)-MIN(C:C))</f>
+        <f t="shared" ref="D67:D129" si="3">(C67-MIN(C:C))/(MAX(C:C)-MIN(C:C))</f>
         <v>0.5767712343151491</v>
       </c>
       <c r="E67">
-        <f t="shared" ref="E67:E130" si="5">A67*(24/4)*30</f>
-        <v>112419.18805098205</v>
+        <f>A67*(24/12)*30</f>
+        <v>37473.062683660683</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
@@ -10886,16 +10886,16 @@
         <v>1.5268193991421199</v>
       </c>
       <c r="C68">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.65495631019744305</v>
       </c>
       <c r="D68">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.56382424165800704</v>
       </c>
       <c r="E68">
-        <f t="shared" si="5"/>
-        <v>112280.45266404215</v>
+        <f>A68*(24/12)*30</f>
+        <v>37426.817554680718</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
@@ -10906,16 +10906,16 @@
         <v>1.5503298931412</v>
       </c>
       <c r="C69">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.64502400709945074</v>
       </c>
       <c r="D69">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.54301212183454939</v>
       </c>
       <c r="E69">
-        <f t="shared" si="5"/>
-        <v>112255.92107113446</v>
+        <f>A69*(24/12)*30</f>
+        <v>37418.640357044816</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
@@ -10926,16 +10926,16 @@
         <v>1.5571487248760301</v>
       </c>
       <c r="C70">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.64219941488223187</v>
       </c>
       <c r="D70">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.53709347929039986</v>
       </c>
       <c r="E70">
-        <f t="shared" si="5"/>
-        <v>112180.32820234585</v>
+        <f>A70*(24/12)*30</f>
+        <v>37393.442734115284</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
@@ -10946,16 +10946,16 @@
         <v>1.58509144343319</v>
       </c>
       <c r="C71">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.63087842921798531</v>
       </c>
       <c r="D71">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.51337151794474045</v>
       </c>
       <c r="E71">
-        <f t="shared" si="5"/>
-        <v>112065.51363527952</v>
+        <f>A71*(24/12)*30</f>
+        <v>37355.171211759844</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
@@ -10966,16 +10966,16 @@
         <v>1.59766560615764</v>
       </c>
       <c r="C72">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.62591320495718994</v>
       </c>
       <c r="D72">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.5029674010700852</v>
       </c>
       <c r="E72">
-        <f t="shared" si="5"/>
-        <v>111998.63099598984</v>
+        <f>A72*(24/12)*30</f>
+        <v>37332.876998663283</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
@@ -10986,16 +10986,16 @@
         <v>1.6084975352003199</v>
       </c>
       <c r="C73">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.62169818611221028</v>
       </c>
       <c r="D73">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.49413526250218537</v>
       </c>
       <c r="E73">
-        <f t="shared" si="5"/>
-        <v>111933.41933368387</v>
+        <f>A73*(24/12)*30</f>
+        <v>37311.139777894627</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
@@ -11006,16 +11006,16 @@
         <v>1.6142442214208801</v>
       </c>
       <c r="C74">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.61948494950769351</v>
       </c>
       <c r="D74">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.48949765278000756</v>
       </c>
       <c r="E74">
-        <f t="shared" si="5"/>
-        <v>111861.99184429728</v>
+        <f>A74*(24/12)*30</f>
+        <v>37287.330614765757</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
@@ -11026,16 +11026,16 @@
         <v>1.6298362958347801</v>
       </c>
       <c r="C75">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.61355855342994037</v>
       </c>
       <c r="D75">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.47707949919824666</v>
       </c>
       <c r="E75">
-        <f t="shared" si="5"/>
-        <v>111752.27644642344</v>
+        <f>A75*(24/12)*30</f>
+        <v>37250.758815474481</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
@@ -11046,16 +11046,16 @@
         <v>1.6419533951154399</v>
       </c>
       <c r="C76">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.60903068441214403</v>
       </c>
       <c r="D76">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.46759181526295196</v>
       </c>
       <c r="E76">
-        <f t="shared" si="5"/>
-        <v>111608.93191208634</v>
+        <f>A76*(24/12)*30</f>
+        <v>37202.977304028776</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
@@ -11066,16 +11066,16 @@
         <v>1.6506060075950499</v>
       </c>
       <c r="C77">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.6058380954622905</v>
       </c>
       <c r="D77">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.46090207340591688</v>
       </c>
       <c r="E77">
-        <f t="shared" si="5"/>
-        <v>111576.80980514485</v>
+        <f>A77*(24/12)*30</f>
+        <v>37192.26993504828</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
@@ -11086,16 +11086,16 @@
         <v>1.65576534151501</v>
       </c>
       <c r="C78">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.60395031525723886</v>
       </c>
       <c r="D78">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.45694642410280328</v>
       </c>
       <c r="E78">
-        <f t="shared" si="5"/>
-        <v>111521.96918943373</v>
+        <f>A78*(24/12)*30</f>
+        <v>37173.989729811241</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
@@ -11106,16 +11106,16 @@
         <v>1.6612977399490301</v>
       </c>
       <c r="C79">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.60193906002104158</v>
       </c>
       <c r="D79">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.45273204556860858</v>
       </c>
       <c r="E79">
-        <f t="shared" si="5"/>
-        <v>111479.52686631444</v>
+        <f>A79*(24/12)*30</f>
+        <v>37159.842288771484</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
@@ -11126,16 +11126,16 @@
         <v>1.6709756971502301</v>
       </c>
       <c r="C80">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.59845274931613468</v>
       </c>
       <c r="D80">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.4454268399766656</v>
       </c>
       <c r="E80">
-        <f t="shared" si="5"/>
-        <v>111435.25413721391</v>
+        <f>A80*(24/12)*30</f>
+        <v>37145.084712404634</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
@@ -11146,16 +11146,16 @@
         <v>1.6827388293077701</v>
       </c>
       <c r="C81">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.59426928444467586</v>
       </c>
       <c r="D81">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.43666081951564822</v>
       </c>
       <c r="E81">
-        <f t="shared" si="5"/>
-        <v>111375.59689838125</v>
+        <f>A81*(24/12)*30</f>
+        <v>37125.198966127078</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
@@ -11166,16 +11166,16 @@
         <v>1.68880760812266</v>
       </c>
       <c r="C82">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.59213376064289314</v>
       </c>
       <c r="D82">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.43218604898055124</v>
       </c>
       <c r="E82">
-        <f t="shared" si="5"/>
-        <v>111360.73406864237</v>
+        <f>A82*(24/12)*30</f>
+        <v>37120.244689547457</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
@@ -11186,16 +11186,16 @@
         <v>1.7038530589071399</v>
       </c>
       <c r="C83">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.58690507069982034</v>
       </c>
       <c r="D83">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.42122986686032016</v>
       </c>
       <c r="E83">
-        <f t="shared" si="5"/>
-        <v>111274.3062974988</v>
+        <f>A83*(24/12)*30</f>
+        <v>37091.435432499595</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
@@ -11206,16 +11206,16 @@
         <v>1.71029442742533</v>
       </c>
       <c r="C84">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.58469464904086477</v>
       </c>
       <c r="D84">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.41659815556711077</v>
       </c>
       <c r="E84">
-        <f t="shared" si="5"/>
-        <v>111190.8005714493</v>
+        <f>A84*(24/12)*30</f>
+        <v>37063.600190483106</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
@@ -11226,16 +11226,16 @@
         <v>1.7134628200537001</v>
       </c>
       <c r="C85">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.583613480430617</v>
       </c>
       <c r="D85">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.41433267791869044</v>
       </c>
       <c r="E85">
-        <f t="shared" si="5"/>
-        <v>111169.9961225955</v>
+        <f>A85*(24/12)*30</f>
+        <v>37056.665374198499</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
@@ -11246,16 +11246,16 @@
         <v>1.72094694154479</v>
       </c>
       <c r="C86">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.58107543925924898</v>
       </c>
       <c r="D86">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.40901447362566423</v>
       </c>
       <c r="E86">
-        <f t="shared" si="5"/>
-        <v>111144.16255395816</v>
+        <f>A86*(24/12)*30</f>
+        <v>37048.054184652719</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
@@ -11266,16 +11266,16 @@
         <v>1.7248978071844301</v>
       </c>
       <c r="C87">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.57974449027349118</v>
       </c>
       <c r="D87">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.406225606884767</v>
       </c>
       <c r="E87">
-        <f t="shared" si="5"/>
-        <v>111111.94436981634</v>
+        <f>A87*(24/12)*30</f>
+        <v>37037.314789938777</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
@@ -11286,16 +11286,16 @@
         <v>1.7328831670714</v>
       </c>
       <c r="C88">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.57707294929179553</v>
       </c>
       <c r="D88">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.40062766746671136</v>
       </c>
       <c r="E88">
-        <f t="shared" si="5"/>
-        <v>111023.0511530931</v>
+        <f>A88*(24/12)*30</f>
+        <v>37007.683717697706</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
@@ -11306,16 +11306,16 @@
         <v>1.73876979435423</v>
       </c>
       <c r="C89">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.57511926147267511</v>
       </c>
       <c r="D89">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.39653391553546158</v>
       </c>
       <c r="E89">
-        <f t="shared" si="5"/>
-        <v>110983.08296289221</v>
+        <f>A89*(24/12)*30</f>
+        <v>36994.360987630738</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
@@ -11326,16 +11326,16 @@
         <v>1.75926057562275</v>
       </c>
       <c r="C90">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.5684206273115715</v>
       </c>
       <c r="D90">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.38249761645770025</v>
       </c>
       <c r="E90">
-        <f t="shared" si="5"/>
-        <v>110882.39215854042</v>
+        <f>A90*(24/12)*30</f>
+        <v>36960.797386180137</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
@@ -11346,16 +11346,16 @@
         <v>1.77524716607027</v>
       </c>
       <c r="C91">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.56330184275895745</v>
       </c>
       <c r="D91">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.37177172978182926</v>
       </c>
       <c r="E91">
-        <f t="shared" si="5"/>
-        <v>110803.71317445287</v>
+        <f>A91*(24/12)*30</f>
+        <v>36934.571058150963</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
@@ -11366,16 +11366,16 @@
         <v>1.78772896820581</v>
       </c>
       <c r="C92">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.55936890758312996</v>
       </c>
       <c r="D92">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.3635306685365518</v>
       </c>
       <c r="E92">
-        <f t="shared" si="5"/>
-        <v>110738.16623999916</v>
+        <f>A92*(24/12)*30</f>
+        <v>36912.722079999723</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
@@ -11386,16 +11386,16 @@
         <v>1.79360239161124</v>
       </c>
       <c r="C93">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.55753716915022278</v>
       </c>
       <c r="D93">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.35969244900430625</v>
       </c>
       <c r="E93">
-        <f t="shared" si="5"/>
-        <v>110698.85235576582</v>
+        <f>A93*(24/12)*30</f>
+        <v>36899.617451921935</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
@@ -11406,16 +11406,16 @@
         <v>1.8134234226511201</v>
       </c>
       <c r="C94">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.55144319165022027</v>
       </c>
       <c r="D94">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.34692314578427624</v>
       </c>
       <c r="E94">
-        <f t="shared" si="5"/>
-        <v>110675.06500882734</v>
+        <f>A94*(24/12)*30</f>
+        <v>36891.68833627578</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
@@ -11426,16 +11426,16 @@
         <v>1.8202517001126799</v>
       </c>
       <c r="C95">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.54937457272425372</v>
       </c>
       <c r="D95">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.34258856753676076</v>
       </c>
       <c r="E95">
-        <f t="shared" si="5"/>
-        <v>110581.57517706163</v>
+        <f>A95*(24/12)*30</f>
+        <v>36860.52505902054</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
@@ -11446,16 +11446,16 @@
         <v>1.82736946700535</v>
       </c>
       <c r="C96">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.54723470981419886</v>
       </c>
       <c r="D96">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.33810470484646116</v>
       </c>
       <c r="E96">
-        <f t="shared" si="5"/>
-        <v>110501.65118574648</v>
+        <f>A96*(24/12)*30</f>
+        <v>36833.883728582157</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
@@ -11466,16 +11466,16 @@
         <v>1.83811960872645</v>
       </c>
       <c r="C97">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.54403423762660086</v>
       </c>
       <c r="D97">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.33139844447534972</v>
       </c>
       <c r="E97">
-        <f t="shared" si="5"/>
-        <v>110422.96330794696</v>
+        <f>A97*(24/12)*30</f>
+        <v>36807.654435982324</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
@@ -11486,16 +11486,16 @@
         <v>1.8516625462363101</v>
       </c>
       <c r="C98">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.54005520716104582</v>
       </c>
       <c r="D98">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.32306079529033244</v>
       </c>
       <c r="E98">
-        <f t="shared" si="5"/>
-        <v>110309.15032461542</v>
+        <f>A98*(24/12)*30</f>
+        <v>36769.716774871798</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
@@ -11506,16 +11506,16 @@
         <v>1.8628491422812401</v>
       </c>
       <c r="C99">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.53681212144500479</v>
       </c>
       <c r="D99">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.31626524265223044</v>
       </c>
       <c r="E99">
-        <f t="shared" si="5"/>
-        <v>110243.02607836902</v>
+        <f>A99*(24/12)*30</f>
+        <v>36747.675359456342</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
@@ -11526,16 +11526,16 @@
         <v>1.88645460534027</v>
       </c>
       <c r="C100">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.53009491835592015</v>
       </c>
       <c r="D100">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.30219003429528968</v>
       </c>
       <c r="E100">
-        <f t="shared" si="5"/>
-        <v>110157.73862287356</v>
+        <f>A100*(24/12)*30</f>
+        <v>36719.246207624514</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
@@ -11546,16 +11546,16 @@
         <v>1.91178882925472</v>
       </c>
       <c r="C101">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.52307032277714161</v>
       </c>
       <c r="D101">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.2874707165847355</v>
       </c>
       <c r="E101">
-        <f t="shared" si="5"/>
-        <v>110025.60519314322</v>
+        <f>A101*(24/12)*30</f>
+        <v>36675.201731047739</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
@@ -11566,16 +11566,16 @@
         <v>1.9302855675680199</v>
       </c>
       <c r="C102">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.5180580618752213</v>
       </c>
       <c r="D102">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.2769680392652844</v>
       </c>
       <c r="E102">
-        <f t="shared" si="5"/>
-        <v>109960.77829900879</v>
+        <f>A102*(24/12)*30</f>
+        <v>36653.59276633626</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
@@ -11586,16 +11586,16 @@
         <v>1.93642883426527</v>
       </c>
       <c r="C103">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.51641453706168616</v>
       </c>
       <c r="D103">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.273524202018812</v>
       </c>
       <c r="E103">
-        <f t="shared" si="5"/>
-        <v>109905.63660928584</v>
+        <f>A103*(24/12)*30</f>
+        <v>36635.212203095281</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
@@ -11606,16 +11606,16 @@
         <v>1.94207249356779</v>
       </c>
       <c r="C104">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.51491383731144635</v>
       </c>
       <c r="D104">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.27037964000606624</v>
       </c>
       <c r="E104">
-        <f t="shared" si="5"/>
-        <v>109846.5465098171</v>
+        <f>A104*(24/12)*30</f>
+        <v>36615.515503272363</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
@@ -11626,16 +11626,16 @@
         <v>1.9498755373354399</v>
       </c>
       <c r="C105">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.51285324670851984</v>
       </c>
       <c r="D105">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.26606188428394512</v>
       </c>
       <c r="E105">
-        <f t="shared" si="5"/>
-        <v>109781.13392422309</v>
+        <f>A105*(24/12)*30</f>
+        <v>36593.711308074358</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
@@ -11646,16 +11646,16 @@
         <v>1.9781609998356799</v>
       </c>
       <c r="C106">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.50552002596505896</v>
       </c>
       <c r="D106">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.25069587427609269</v>
       </c>
       <c r="E106">
-        <f t="shared" si="5"/>
-        <v>109653.41344301442</v>
+        <f>A106*(24/12)*30</f>
+        <v>36551.137814338137</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
@@ -11666,16 +11666,16 @@
         <v>1.98847481657662</v>
       </c>
       <c r="C107">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.50289799582255257</v>
       </c>
       <c r="D107">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.24520167973045989</v>
       </c>
       <c r="E107">
-        <f t="shared" si="5"/>
-        <v>109502.24919785443</v>
+        <f>A107*(24/12)*30</f>
+        <v>36500.74973261814</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
@@ -11686,16 +11686,16 @@
         <v>1.99485156080651</v>
       </c>
       <c r="C108">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.50129043165282139</v>
       </c>
       <c r="D108">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.24183319431531933</v>
       </c>
       <c r="E108">
-        <f t="shared" si="5"/>
-        <v>109485.11928850795</v>
+        <f>A108*(24/12)*30</f>
+        <v>36495.039762835979</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
@@ -11706,16 +11706,16 @@
         <v>2.0045831885815999</v>
       </c>
       <c r="C109">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.49885682255350977</v>
       </c>
       <c r="D109">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.23673381669075122</v>
       </c>
       <c r="E109">
-        <f t="shared" si="5"/>
-        <v>109451.50274432609</v>
+        <f>A109*(24/12)*30</f>
+        <v>36483.834248108702</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
@@ -11726,16 +11726,16 @@
         <v>2.0117952912562398</v>
       </c>
       <c r="C110">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.49706846633265694</v>
       </c>
       <c r="D110">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.23298650012296157</v>
       </c>
       <c r="E110">
-        <f t="shared" si="5"/>
-        <v>109360.93820268151</v>
+        <f>A110*(24/12)*30</f>
+        <v>36453.646067560505</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
@@ -11746,16 +11746,16 @@
         <v>2.0184948280742798</v>
       </c>
       <c r="C111">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.49541865854273093</v>
       </c>
       <c r="D111">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.22952949754552765</v>
       </c>
       <c r="E111">
-        <f t="shared" si="5"/>
-        <v>109346.85739040274</v>
+        <f>A111*(24/12)*30</f>
+        <v>36448.952463467584</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
@@ -11766,16 +11766,16 @@
         <v>2.0299569951991301</v>
       </c>
       <c r="C112">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.49262127343830958</v>
       </c>
       <c r="D112">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.22366786470859368</v>
       </c>
       <c r="E112">
-        <f t="shared" si="5"/>
-        <v>109266.71605734348</v>
+        <f>A112*(24/12)*30</f>
+        <v>36422.238685781165</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
@@ -11786,16 +11786,16 @@
         <v>2.0367700023043001</v>
       </c>
       <c r="C113">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.49097345250992985</v>
       </c>
       <c r="D113">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.22021502539522511</v>
       </c>
       <c r="E113">
-        <f t="shared" si="5"/>
-        <v>109249.78940719634</v>
+        <f>A113*(24/12)*30</f>
+        <v>36416.596469065444</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
@@ -11806,16 +11806,16 @@
         <v>2.0508768884195501</v>
       </c>
       <c r="C114">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.48759630850909902</v>
       </c>
       <c r="D114">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.21313856740628495</v>
       </c>
       <c r="E114">
-        <f t="shared" si="5"/>
-        <v>109179.33370063578</v>
+        <f>A114*(24/12)*30</f>
+        <v>36393.111233545264</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
@@ -11826,16 +11826,16 @@
         <v>2.0532515830034401</v>
       </c>
       <c r="C115">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.48703237746308098</v>
       </c>
       <c r="D115">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.21195690788722862</v>
       </c>
       <c r="E115">
-        <f t="shared" si="5"/>
-        <v>109134.14959932516</v>
+        <f>A115*(24/12)*30</f>
+        <v>36378.049866441717</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
@@ -11846,16 +11846,16 @@
         <v>2.0598427165531401</v>
       </c>
       <c r="C116">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.48547395971735197</v>
       </c>
       <c r="D116">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.20869140374995848</v>
       </c>
       <c r="E116">
-        <f t="shared" si="5"/>
-        <v>109088.21205804762</v>
+        <f>A116*(24/12)*30</f>
+        <v>36362.737352682539</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
@@ -11866,16 +11866,16 @@
         <v>2.06749902350324</v>
       </c>
       <c r="C117">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.48367616556624354</v>
       </c>
       <c r="D117">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.20492431096980127</v>
       </c>
       <c r="E117">
-        <f t="shared" si="5"/>
-        <v>108993.30892794592</v>
+        <f>A117*(24/12)*30</f>
+        <v>36331.102975981979</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
@@ -11886,16 +11886,16 @@
         <v>2.0723991029441402</v>
       </c>
       <c r="C118">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.48253253853437622</v>
       </c>
       <c r="D118">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.20252795812134872</v>
       </c>
       <c r="E118">
-        <f t="shared" si="5"/>
-        <v>108941.24959820029</v>
+        <f>A118*(24/12)*30</f>
+        <v>36313.749866066762</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
@@ -11906,16 +11906,16 @@
         <v>2.08298015329432</v>
       </c>
       <c r="C119">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.48008138647814685</v>
       </c>
       <c r="D119">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.19739182103446579</v>
       </c>
       <c r="E119">
-        <f t="shared" si="5"/>
-        <v>108863.99245045475</v>
+        <f>A119*(24/12)*30</f>
+        <v>36287.99748348492</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
@@ -11926,16 +11926,16 @@
         <v>2.0943076129376501</v>
       </c>
       <c r="C120">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.47748477531307676</v>
       </c>
       <c r="D120">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.19195088934226939</v>
       </c>
       <c r="E120">
-        <f t="shared" si="5"/>
-        <v>108757.08628803217</v>
+        <f>A120*(24/12)*30</f>
+        <v>36252.362096010722</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
@@ -11946,16 +11946,16 @@
         <v>2.1035785123492898</v>
       </c>
       <c r="C121">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.47538040255183711</v>
       </c>
       <c r="D121">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.18754139260943276</v>
       </c>
       <c r="E121">
-        <f t="shared" si="5"/>
-        <v>108679.79745241343</v>
+        <f>A121*(24/12)*30</f>
+        <v>36226.599150804475</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
@@ -11966,16 +11966,16 @@
         <v>2.1223939185203999</v>
       </c>
       <c r="C122">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.47116606925501242</v>
       </c>
       <c r="D122">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.17871069053719815</v>
       </c>
       <c r="E122">
-        <f t="shared" si="5"/>
-        <v>108618.7967628219</v>
+        <f>A122*(24/12)*30</f>
+        <v>36206.265587607304</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
@@ -11986,16 +11986,16 @@
         <v>2.1266538135332098</v>
       </c>
       <c r="C123">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.47022227766286323</v>
       </c>
       <c r="D123">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.17673307230400595</v>
       </c>
       <c r="E123">
-        <f t="shared" si="5"/>
-        <v>108587.41526681928</v>
+        <f>A123*(24/12)*30</f>
+        <v>36195.805088939764</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
@@ -12006,16 +12006,16 @@
         <v>2.1341530733979899</v>
       </c>
       <c r="C124">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.46856995051803108</v>
       </c>
       <c r="D124">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.17327079067742635</v>
       </c>
       <c r="E124">
-        <f t="shared" si="5"/>
-        <v>108539.80897821065</v>
+        <f>A124*(24/12)*30</f>
+        <v>36179.936326070223</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
@@ -12026,16 +12026,16 @@
         <v>2.1629312752197798</v>
       </c>
       <c r="C125">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.46233554041072711</v>
       </c>
       <c r="D125">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.16020722536919349</v>
       </c>
       <c r="E125">
-        <f t="shared" si="5"/>
-        <v>108530.05853964474</v>
+        <f>A125*(24/12)*30</f>
+        <v>36176.686179881581</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
@@ -12046,16 +12046,16 @@
         <v>2.1733754315243599</v>
       </c>
       <c r="C126">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.46011378682909881</v>
       </c>
       <c r="D126">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.1555517691972618</v>
       </c>
       <c r="E126">
-        <f t="shared" si="5"/>
-        <v>108508.28007550014</v>
+        <f>A126*(24/12)*30</f>
+        <v>36169.426691833374</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
@@ -12066,16 +12066,16 @@
         <v>2.4756738533565001</v>
       </c>
       <c r="C127">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.40393042833336362</v>
       </c>
       <c r="D127">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>3.7825318689133428E-2</v>
       </c>
       <c r="E127">
-        <f t="shared" si="5"/>
-        <v>108469.28125009655</v>
+        <f>A127*(24/12)*30</f>
+        <v>36156.427083365517</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
@@ -12086,16 +12086,16 @@
         <v>2.57841751613724</v>
       </c>
       <c r="C128">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.38783478383210518</v>
       </c>
       <c r="D128">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>4.0985507189048578E-3</v>
       </c>
       <c r="E128">
-        <f t="shared" si="5"/>
-        <v>108440.9599609656</v>
+        <f>A128*(24/12)*30</f>
+        <v>36146.9866536552</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
@@ -12106,16 +12106,16 @@
         <v>2.5914872359488101</v>
       </c>
       <c r="C129">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.38587880585638862</v>
       </c>
       <c r="D129">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E129">
-        <f t="shared" si="5"/>
-        <v>108337.6412667511</v>
+        <f>A129*(24/12)*30</f>
+        <v>36112.547088917039</v>
       </c>
     </row>
   </sheetData>
@@ -12133,7 +12133,7 @@
   <dimension ref="A1:F157"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12180,12 +12180,12 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <f>A2*(24/4)*30</f>
-        <v>403235.51467025874</v>
+        <f>A2*(24/12)*30</f>
+        <v>134411.83822341959</v>
       </c>
       <c r="F2">
         <f>E2/6</f>
-        <v>67205.919111709794</v>
+        <v>22401.973037236599</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -12204,8 +12204,8 @@
         <v>1</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E66" si="2">A3*(24/4)*30</f>
-        <v>403235.51467025874</v>
+        <f>A3*(24/12)*30</f>
+        <v>134411.83822341959</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
@@ -12224,8 +12224,8 @@
         <v>0.99285526027016602</v>
       </c>
       <c r="E4">
-        <f t="shared" si="2"/>
-        <v>402923.84692148463</v>
+        <f>A4*(24/12)*30</f>
+        <v>134307.9489738282</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -12244,8 +12244,8 @@
         <v>0.99029834991237664</v>
       </c>
       <c r="E5">
-        <f t="shared" si="2"/>
-        <v>402473.92041143455</v>
+        <f>A5*(24/12)*30</f>
+        <v>134157.9734704782</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -12264,8 +12264,8 @@
         <v>0.9849080956892865</v>
       </c>
       <c r="E6">
-        <f t="shared" si="2"/>
-        <v>402142.52109094016</v>
+        <f>A6*(24/12)*30</f>
+        <v>134047.5070303134</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
@@ -12284,8 +12284,8 @@
         <v>0.97234767038788328</v>
       </c>
       <c r="E7">
-        <f t="shared" si="2"/>
-        <v>400962.60541170358</v>
+        <f>A7*(24/12)*30</f>
+        <v>133654.2018039012</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
@@ -12304,8 +12304,8 @@
         <v>0.97234767038788328</v>
       </c>
       <c r="E8">
-        <f t="shared" si="2"/>
-        <v>400962.60541170358</v>
+        <f>A8*(24/12)*30</f>
+        <v>133654.2018039012</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
@@ -12324,8 +12324,8 @@
         <v>0.96615578216852371</v>
       </c>
       <c r="E9">
-        <f t="shared" si="2"/>
-        <v>400081.9660611102</v>
+        <f>A9*(24/12)*30</f>
+        <v>133360.65535370339</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -12344,8 +12344,8 @@
         <v>0.96582497652675448</v>
       </c>
       <c r="E10">
-        <f t="shared" si="2"/>
-        <v>399639.31075636379</v>
+        <f>A10*(24/12)*30</f>
+        <v>133213.10358545461</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -12364,8 +12364,8 @@
         <v>0.9608660434732913</v>
       </c>
       <c r="E11">
-        <f t="shared" si="2"/>
-        <v>399479.88811040815</v>
+        <f>A11*(24/12)*30</f>
+        <v>133159.96270346938</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -12384,8 +12384,8 @@
         <v>0.95676716731784528</v>
       </c>
       <c r="E12">
-        <f t="shared" si="2"/>
-        <v>399189.57234195963</v>
+        <f>A12*(24/12)*30</f>
+        <v>133063.19078065321</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
@@ -12404,8 +12404,8 @@
         <v>0.95549638283509097</v>
       </c>
       <c r="E13">
-        <f t="shared" si="2"/>
-        <v>396296.80698930658</v>
+        <f>A13*(24/12)*30</f>
+        <v>132098.93566310219</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -12424,8 +12424,8 @@
         <v>0.95266364950870108</v>
       </c>
       <c r="E14">
-        <f t="shared" si="2"/>
-        <v>394870.3221192066</v>
+        <f>A14*(24/12)*30</f>
+        <v>131623.44070640221</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -12444,8 +12444,8 @@
         <v>0.94916925843581434</v>
       </c>
       <c r="E15">
-        <f t="shared" si="2"/>
-        <v>394273.20935260446</v>
+        <f>A15*(24/12)*30</f>
+        <v>131424.40311753482</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
@@ -12464,8 +12464,8 @@
         <v>0.94685884043235802</v>
       </c>
       <c r="E16">
-        <f t="shared" si="2"/>
-        <v>393528.00067648024</v>
+        <f>A16*(24/12)*30</f>
+        <v>131176.00022549339</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -12484,8 +12484,8 @@
         <v>0.93231509281298375</v>
       </c>
       <c r="E17">
-        <f t="shared" si="2"/>
-        <v>392839.33287388866</v>
+        <f>A17*(24/12)*30</f>
+        <v>130946.44429129621</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -12504,8 +12504,8 @@
         <v>0.92988496672698218</v>
       </c>
       <c r="E18">
-        <f t="shared" si="2"/>
-        <v>392425.96094679605</v>
+        <f>A18*(24/12)*30</f>
+        <v>130808.65364893201</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -12524,8 +12524,8 @@
         <v>0.92462134902564774</v>
       </c>
       <c r="E19">
-        <f t="shared" si="2"/>
-        <v>391576.05009644036</v>
+        <f>A19*(24/12)*30</f>
+        <v>130525.35003214679</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -12544,8 +12544,8 @@
         <v>0.92267177326984207</v>
       </c>
       <c r="E20">
-        <f t="shared" si="2"/>
-        <v>390977.22651730559</v>
+        <f>A20*(24/12)*30</f>
+        <v>130325.74217243519</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
@@ -12564,8 +12564,8 @@
         <v>0.9114361196704176</v>
       </c>
       <c r="E21">
-        <f t="shared" si="2"/>
-        <v>390868.79375580297</v>
+        <f>A21*(24/12)*30</f>
+        <v>130289.59791860101</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
@@ -12584,8 +12584,8 @@
         <v>0.90789052999972386</v>
       </c>
       <c r="E22">
-        <f t="shared" si="2"/>
-        <v>389817.45009435061</v>
+        <f>A22*(24/12)*30</f>
+        <v>129939.1500314502</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
@@ -12604,8 +12604,8 @@
         <v>0.90514042591666088</v>
       </c>
       <c r="E23">
-        <f t="shared" si="2"/>
-        <v>389405.23572926165</v>
+        <f>A23*(24/12)*30</f>
+        <v>129801.74524308721</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -12624,8 +12624,8 @@
         <v>0.89592827552093846</v>
       </c>
       <c r="E24">
-        <f t="shared" si="2"/>
-        <v>388832.10294066841</v>
+        <f>A24*(24/12)*30</f>
+        <v>129610.70098022281</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
@@ -12644,8 +12644,8 @@
         <v>0.89465887360480834</v>
       </c>
       <c r="E25">
-        <f t="shared" si="2"/>
-        <v>388071.659777814</v>
+        <f>A25*(24/12)*30</f>
+        <v>129357.219925938</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
@@ -12664,8 +12664,8 @@
         <v>0.89012412411845143</v>
       </c>
       <c r="E26">
-        <f t="shared" si="2"/>
-        <v>387790.88099628605</v>
+        <f>A26*(24/12)*30</f>
+        <v>129263.62699876202</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -12684,8 +12684,8 @@
         <v>0.88333826004717297</v>
       </c>
       <c r="E27">
-        <f t="shared" si="2"/>
-        <v>387467.14824052918</v>
+        <f>A27*(24/12)*30</f>
+        <v>129155.7160801764</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
@@ -12704,8 +12704,8 @@
         <v>0.8814552451312353</v>
       </c>
       <c r="E28">
-        <f t="shared" si="2"/>
-        <v>386957.694214035</v>
+        <f>A28*(24/12)*30</f>
+        <v>128985.898071345</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -12724,8 +12724,8 @@
         <v>0.87838315368489683</v>
       </c>
       <c r="E29">
-        <f t="shared" si="2"/>
-        <v>386740.8124563708</v>
+        <f>A29*(24/12)*30</f>
+        <v>128913.60415212359</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -12744,8 +12744,8 @@
         <v>0.87162177578305933</v>
       </c>
       <c r="E30">
-        <f t="shared" si="2"/>
-        <v>385913.57871935703</v>
+        <f>A30*(24/12)*30</f>
+        <v>128637.859573119</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -12764,8 +12764,8 @@
         <v>0.86108387617253968</v>
       </c>
       <c r="E31">
-        <f t="shared" si="2"/>
-        <v>385060.62886654143</v>
+        <f>A31*(24/12)*30</f>
+        <v>128353.5429555138</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -12784,8 +12784,8 @@
         <v>0.85597792867512656</v>
       </c>
       <c r="E32">
-        <f t="shared" si="2"/>
-        <v>384553.47856350779</v>
+        <f>A32*(24/12)*30</f>
+        <v>128184.49285450261</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -12804,8 +12804,8 @@
         <v>0.85226505890726267</v>
       </c>
       <c r="E33">
-        <f t="shared" si="2"/>
-        <v>384175.06779498665</v>
+        <f>A33*(24/12)*30</f>
+        <v>128058.35593166221</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -12824,8 +12824,8 @@
         <v>0.84537010302483939</v>
       </c>
       <c r="E34">
-        <f t="shared" si="2"/>
-        <v>383603.55890493066</v>
+        <f>A34*(24/12)*30</f>
+        <v>127867.85296831021</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -12844,8 +12844,8 @@
         <v>0.8380525736804002</v>
       </c>
       <c r="E35">
-        <f t="shared" si="2"/>
-        <v>383209.19336828165</v>
+        <f>A35*(24/12)*30</f>
+        <v>127736.3977894272</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
@@ -12864,8 +12864,8 @@
         <v>0.83289629985018987</v>
       </c>
       <c r="E36">
-        <f t="shared" si="2"/>
-        <v>382943.75489157415</v>
+        <f>A36*(24/12)*30</f>
+        <v>127647.91829719138</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
@@ -12884,8 +12884,8 @@
         <v>0.8246901568926811</v>
       </c>
       <c r="E37">
-        <f t="shared" si="2"/>
-        <v>382610.9923781472</v>
+        <f>A37*(24/12)*30</f>
+        <v>127536.9974593824</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
@@ -12904,8 +12904,8 @@
         <v>0.81587630219796237</v>
       </c>
       <c r="E38">
-        <f t="shared" si="2"/>
-        <v>382227.71519287804</v>
+        <f>A38*(24/12)*30</f>
+        <v>127409.23839762602</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
@@ -12924,8 +12924,8 @@
         <v>0.80758857123306838</v>
       </c>
       <c r="E39">
-        <f t="shared" si="2"/>
-        <v>382012.62996136141</v>
+        <f>A39*(24/12)*30</f>
+        <v>127337.54332045381</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -12944,8 +12944,8 @@
         <v>0.80238665664859943</v>
       </c>
       <c r="E40">
-        <f t="shared" si="2"/>
-        <v>381595.74837892916</v>
+        <f>A40*(24/12)*30</f>
+        <v>127198.58279297639</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
@@ -12964,8 +12964,8 @@
         <v>0.79342703197526199</v>
       </c>
       <c r="E41">
-        <f t="shared" si="2"/>
-        <v>381403.71041739301</v>
+        <f>A41*(24/12)*30</f>
+        <v>127134.57013913101</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
@@ -12984,8 +12984,8 @@
         <v>0.78743450257305969</v>
       </c>
       <c r="E42">
-        <f t="shared" si="2"/>
-        <v>381198.19478052965</v>
+        <f>A42*(24/12)*30</f>
+        <v>127066.0649268432</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
@@ -13004,8 +13004,8 @@
         <v>0.78458790499842368</v>
       </c>
       <c r="E43">
-        <f t="shared" si="2"/>
-        <v>381057.35244255723</v>
+        <f>A43*(24/12)*30</f>
+        <v>127019.11748085241</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
@@ -13024,8 +13024,8 @@
         <v>0.77831801471743878</v>
       </c>
       <c r="E44">
-        <f t="shared" si="2"/>
-        <v>380797.09439579275</v>
+        <f>A44*(24/12)*30</f>
+        <v>126932.36479859758</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
@@ -13044,8 +13044,8 @@
         <v>0.77418108619095471</v>
       </c>
       <c r="E45">
-        <f t="shared" si="2"/>
-        <v>380640.45111365517</v>
+        <f>A45*(24/12)*30</f>
+        <v>126880.15037121839</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
@@ -13064,8 +13064,8 @@
         <v>0.76851437211470841</v>
       </c>
       <c r="E46">
-        <f t="shared" si="2"/>
-        <v>380514.74558961962</v>
+        <f>A46*(24/12)*30</f>
+        <v>126838.24852987321</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
@@ -13084,8 +13084,8 @@
         <v>0.75734650891244304</v>
       </c>
       <c r="E47">
-        <f t="shared" si="2"/>
-        <v>380197.33470558899</v>
+        <f>A47*(24/12)*30</f>
+        <v>126732.444901863</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
@@ -13104,8 +13104,8 @@
         <v>0.75548130340755204</v>
       </c>
       <c r="E48">
-        <f t="shared" si="2"/>
-        <v>380010.35499927477</v>
+        <f>A48*(24/12)*30</f>
+        <v>126670.11833309158</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
@@ -13124,8 +13124,8 @@
         <v>0.74721057277330372</v>
       </c>
       <c r="E49">
-        <f t="shared" si="2"/>
-        <v>379787.36537849042</v>
+        <f>A49*(24/12)*30</f>
+        <v>126595.78845949681</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -13144,8 +13144,8 @@
         <v>0.73920561769019066</v>
       </c>
       <c r="E50">
-        <f t="shared" si="2"/>
-        <v>379605.40571196715</v>
+        <f>A50*(24/12)*30</f>
+        <v>126535.13523732239</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -13164,8 +13164,8 @@
         <v>0.73352458698536205</v>
       </c>
       <c r="E51">
-        <f t="shared" si="2"/>
-        <v>379463.27526307979</v>
+        <f>A51*(24/12)*30</f>
+        <v>126487.75842102661</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
@@ -13184,8 +13184,8 @@
         <v>0.72666500256319011</v>
       </c>
       <c r="E52">
-        <f t="shared" si="2"/>
-        <v>379349.55087730207</v>
+        <f>A52*(24/12)*30</f>
+        <v>126449.85029243401</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
@@ -13204,8 +13204,8 @@
         <v>0.70057541428081749</v>
       </c>
       <c r="E53">
-        <f t="shared" si="2"/>
-        <v>379337.02277728682</v>
+        <f>A53*(24/12)*30</f>
+        <v>126445.6742590956</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
@@ -13224,8 +13224,8 @@
         <v>0.69718294112450885</v>
       </c>
       <c r="E54">
-        <f t="shared" si="2"/>
-        <v>379262.25905816525</v>
+        <f>A54*(24/12)*30</f>
+        <v>126420.75301938842</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
@@ -13244,8 +13244,8 @@
         <v>0.692965434787852</v>
       </c>
       <c r="E55">
-        <f t="shared" si="2"/>
-        <v>379105.23410501756</v>
+        <f>A55*(24/12)*30</f>
+        <v>126368.41136833919</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
@@ -13264,8 +13264,8 @@
         <v>0.68841241868917924</v>
       </c>
       <c r="E56">
-        <f t="shared" si="2"/>
-        <v>378929.15081872919</v>
+        <f>A56*(24/12)*30</f>
+        <v>126309.71693957639</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
@@ -13284,8 +13284,8 @@
         <v>0.68225274860402352</v>
       </c>
       <c r="E57">
-        <f t="shared" si="2"/>
-        <v>378735.19650528656</v>
+        <f>A57*(24/12)*30</f>
+        <v>126245.06550176219</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
@@ -13304,8 +13304,8 @@
         <v>0.67351298692820494</v>
       </c>
       <c r="E58">
-        <f t="shared" si="2"/>
-        <v>378619.92861997319</v>
+        <f>A58*(24/12)*30</f>
+        <v>126206.6428733244</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
@@ -13324,8 +13324,8 @@
         <v>0.66765900723420202</v>
       </c>
       <c r="E59">
-        <f t="shared" si="2"/>
-        <v>378567.89215485123</v>
+        <f>A59*(24/12)*30</f>
+        <v>126189.29738495039</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
@@ -13344,8 +13344,8 @@
         <v>0.66517042012675021</v>
       </c>
       <c r="E60">
-        <f t="shared" si="2"/>
-        <v>378511.83148269414</v>
+        <f>A60*(24/12)*30</f>
+        <v>126170.61049423138</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
@@ -13364,8 +13364,8 @@
         <v>0.66179682966112563</v>
       </c>
       <c r="E61">
-        <f t="shared" si="2"/>
-        <v>378472.28216345637</v>
+        <f>A61*(24/12)*30</f>
+        <v>126157.4273878188</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
@@ -13384,8 +13384,8 @@
         <v>0.66057903258073236</v>
       </c>
       <c r="E62">
-        <f t="shared" si="2"/>
-        <v>378450.36195786181</v>
+        <f>A62*(24/12)*30</f>
+        <v>126150.12065262059</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
@@ -13404,8 +13404,8 @@
         <v>0.65270903660076163</v>
       </c>
       <c r="E63">
-        <f t="shared" si="2"/>
-        <v>378198.46609676821</v>
+        <f>A63*(24/12)*30</f>
+        <v>126066.15536558939</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
@@ -13424,8 +13424,8 @@
         <v>0.65211148107894834</v>
       </c>
       <c r="E64">
-        <f t="shared" si="2"/>
-        <v>378186.04195720563</v>
+        <f>A64*(24/12)*30</f>
+        <v>126062.0139857352</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
@@ -13444,8 +13444,8 @@
         <v>0.65158801203853667</v>
       </c>
       <c r="E65">
-        <f t="shared" si="2"/>
-        <v>378085.33476639359</v>
+        <f>A65*(24/12)*30</f>
+        <v>126028.4449221312</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
@@ -13464,8 +13464,8 @@
         <v>0.64778386672818256</v>
       </c>
       <c r="E66">
-        <f t="shared" si="2"/>
-        <v>378038.65373426158</v>
+        <f>A66*(24/12)*30</f>
+        <v>126012.88457808719</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
@@ -13476,16 +13476,16 @@
         <v>1.4665965655657101</v>
       </c>
       <c r="C67">
-        <f t="shared" ref="C67:C130" si="3">1/B67</f>
+        <f t="shared" ref="C67:C130" si="2">1/B67</f>
         <v>0.68185077169758013</v>
       </c>
       <c r="D67">
-        <f t="shared" ref="D67:D130" si="4">(C67-MIN(C:C))/(MAX(C:C)-MIN(C:C))</f>
+        <f t="shared" ref="D67:D130" si="3">(C67-MIN(C:C))/(MAX(C:C)-MIN(C:C))</f>
         <v>0.64606503567016793</v>
       </c>
       <c r="E67">
-        <f t="shared" ref="E67:E130" si="5">A67*(24/4)*30</f>
-        <v>377917.3159862652</v>
+        <f>A67*(24/12)*30</f>
+        <v>125972.4386620884</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
@@ -13496,16 +13496,16 @@
         <v>1.4699572751529599</v>
       </c>
       <c r="C68">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.68029188120174622</v>
       </c>
       <c r="D68">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.64301707279201203</v>
       </c>
       <c r="E68">
-        <f t="shared" si="5"/>
-        <v>377611.18655350321</v>
+        <f>A68*(24/12)*30</f>
+        <v>125870.39551783439</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
@@ -13516,16 +13516,16 @@
         <v>1.5042432344788901</v>
       </c>
       <c r="C69">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.66478610445366348</v>
       </c>
       <c r="D69">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.61269997736328763</v>
       </c>
       <c r="E69">
-        <f t="shared" si="5"/>
-        <v>377462.67124649399</v>
+        <f>A69*(24/12)*30</f>
+        <v>125820.890415498</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
@@ -13536,16 +13536,16 @@
         <v>1.5065578684507299</v>
       </c>
       <c r="C70">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.66376474541157249</v>
       </c>
       <c r="D70">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.61070300294213242</v>
       </c>
       <c r="E70">
-        <f t="shared" si="5"/>
-        <v>377273.98313357041</v>
+        <f>A70*(24/12)*30</f>
+        <v>125757.99437785681</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
@@ -13556,16 +13556,16 @@
         <v>1.51246226570963</v>
       </c>
       <c r="C71">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.66117351994286711</v>
       </c>
       <c r="D71">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.60563660536086994</v>
       </c>
       <c r="E71">
-        <f t="shared" si="5"/>
-        <v>377125.15377839579</v>
+        <f>A71*(24/12)*30</f>
+        <v>125708.3845927986</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
@@ -13576,16 +13576,16 @@
         <v>1.51863397621119</v>
       </c>
       <c r="C72">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.65848651858486684</v>
       </c>
       <c r="D72">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.60038294552098626</v>
       </c>
       <c r="E72">
-        <f t="shared" si="5"/>
-        <v>377003.00388516841</v>
+        <f>A72*(24/12)*30</f>
+        <v>125667.66796172279</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
@@ -13596,16 +13596,16 @@
         <v>1.52333246047112</v>
       </c>
       <c r="C73">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.65645551837760396</v>
       </c>
       <c r="D73">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.59641190762332263</v>
       </c>
       <c r="E73">
-        <f t="shared" si="5"/>
-        <v>376645.80471390177</v>
+        <f>A73*(24/12)*30</f>
+        <v>125548.60157130059</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
@@ -13616,16 +13616,16 @@
         <v>1.54280075804901</v>
       </c>
       <c r="C74">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.64817183604743411</v>
       </c>
       <c r="D74">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.58021554469451597</v>
       </c>
       <c r="E74">
-        <f t="shared" si="5"/>
-        <v>376484.15933205304</v>
+        <f>A74*(24/12)*30</f>
+        <v>125494.71977735101</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
@@ -13636,16 +13636,16 @@
         <v>1.5591595072703499</v>
       </c>
       <c r="C75">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.64137119732587144</v>
       </c>
       <c r="D75">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.56691884782807966</v>
       </c>
       <c r="E75">
-        <f t="shared" si="5"/>
-        <v>376328.97112650477</v>
+        <f>A75*(24/12)*30</f>
+        <v>125442.9903755016</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
@@ -13656,16 +13656,16 @@
         <v>1.5598897115092001</v>
       </c>
       <c r="C76">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.64107096330066549</v>
       </c>
       <c r="D76">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.56633182637530111</v>
       </c>
       <c r="E76">
-        <f t="shared" si="5"/>
-        <v>376064.48711649602</v>
+        <f>A76*(24/12)*30</f>
+        <v>125354.82903883202</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
@@ -13676,16 +13676,16 @@
         <v>1.5675897610021501</v>
       </c>
       <c r="C77">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.63792200285915779</v>
       </c>
       <c r="D77">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.56017493815502717</v>
       </c>
       <c r="E77">
-        <f t="shared" si="5"/>
-        <v>376027.6908360474</v>
+        <f>A77*(24/12)*30</f>
+        <v>125342.5636120158</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
@@ -13696,16 +13696,16 @@
         <v>1.57182727042336</v>
       </c>
       <c r="C78">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.63620222069989751</v>
       </c>
       <c r="D78">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.55681239781370839</v>
       </c>
       <c r="E78">
-        <f t="shared" si="5"/>
-        <v>375719.88564788218</v>
+        <f>A78*(24/12)*30</f>
+        <v>125239.96188262741</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
@@ -13716,16 +13716,16 @@
         <v>1.5894863080097199</v>
       </c>
       <c r="C79">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.6291340761860057</v>
       </c>
       <c r="D79">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.54299267015909936</v>
       </c>
       <c r="E79">
-        <f t="shared" si="5"/>
-        <v>375626.88364554534</v>
+        <f>A79*(24/12)*30</f>
+        <v>125208.96121518179</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
@@ -13736,16 +13736,16 @@
         <v>1.5913960581639</v>
       </c>
       <c r="C80">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.62837908569018752</v>
       </c>
       <c r="D80">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.54151650296790521</v>
       </c>
       <c r="E80">
-        <f t="shared" si="5"/>
-        <v>375452.41341723833</v>
+        <f>A80*(24/12)*30</f>
+        <v>125150.8044724128</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
@@ -13756,16 +13756,16 @@
         <v>1.6029340534635801</v>
       </c>
       <c r="C81">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.62385598324474101</v>
       </c>
       <c r="D81">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.53267287451250045</v>
       </c>
       <c r="E81">
-        <f t="shared" si="5"/>
-        <v>375446.80451762286</v>
+        <f>A81*(24/12)*30</f>
+        <v>125148.93483920761</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
@@ -13776,16 +13776,16 @@
         <v>1.60953394422173</v>
       </c>
       <c r="C82">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.62129786301806611</v>
       </c>
       <c r="D82">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.52767120472902163</v>
       </c>
       <c r="E82">
-        <f t="shared" si="5"/>
-        <v>375195.74065625889</v>
+        <f>A82*(24/12)*30</f>
+        <v>125065.2468854196</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
@@ -13796,16 +13796,16 @@
         <v>1.6158138298142899</v>
       </c>
       <c r="C83">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.61888317920569658</v>
       </c>
       <c r="D83">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.52294998367965662</v>
       </c>
       <c r="E83">
-        <f t="shared" si="5"/>
-        <v>375072.08220089279</v>
+        <f>A83*(24/12)*30</f>
+        <v>125024.02740029761</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
@@ -13816,16 +13816,16 @@
         <v>1.61587846044929</v>
       </c>
       <c r="C84">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.61885842560334214</v>
       </c>
       <c r="D84">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.52290158511588414</v>
       </c>
       <c r="E84">
-        <f t="shared" si="5"/>
-        <v>374909.04818792274</v>
+        <f>A84*(24/12)*30</f>
+        <v>124969.68272930759</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
@@ -13836,16 +13836,16 @@
         <v>1.6282346843412401</v>
       </c>
       <c r="C85">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.61416207971554504</v>
       </c>
       <c r="D85">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.51371922883926302</v>
       </c>
       <c r="E85">
-        <f t="shared" si="5"/>
-        <v>374907.75092868606</v>
+        <f>A85*(24/12)*30</f>
+        <v>124969.25030956202</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
@@ -13856,16 +13856,16 @@
         <v>1.62859090867242</v>
       </c>
       <c r="C86">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.61402774304762087</v>
       </c>
       <c r="D86">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.51345657204707507</v>
       </c>
       <c r="E86">
-        <f t="shared" si="5"/>
-        <v>374646.64811176626</v>
+        <f>A86*(24/12)*30</f>
+        <v>124882.21603725541</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
@@ -13876,16 +13876,16 @@
         <v>1.6473967985931099</v>
       </c>
       <c r="C87">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.60701829750671366</v>
       </c>
       <c r="D87">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.49975161338433627</v>
       </c>
       <c r="E87">
-        <f t="shared" si="5"/>
-        <v>374619.55573830963</v>
+        <f>A87*(24/12)*30</f>
+        <v>124873.1852461032</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
@@ -13896,16 +13896,16 @@
         <v>1.6538944776108699</v>
       </c>
       <c r="C88">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.60463349599216754</v>
       </c>
       <c r="D88">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.49508881859051845</v>
       </c>
       <c r="E88">
-        <f t="shared" si="5"/>
-        <v>374278.99891265645</v>
+        <f>A88*(24/12)*30</f>
+        <v>124759.66630421882</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
@@ -13916,16 +13916,16 @@
         <v>1.6601106295371899</v>
       </c>
       <c r="C89">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.60236949406123774</v>
       </c>
       <c r="D89">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.49066221270640487</v>
       </c>
       <c r="E89">
-        <f t="shared" si="5"/>
-        <v>374203.31371183618</v>
+        <f>A89*(24/12)*30</f>
+        <v>124734.43790394539</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
@@ -13936,16 +13936,16 @@
         <v>1.6670436718278701</v>
       </c>
       <c r="C90">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.59986430883572839</v>
       </c>
       <c r="D90">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.48576404212247787</v>
       </c>
       <c r="E90">
-        <f t="shared" si="5"/>
-        <v>374094.26818141493</v>
+        <f>A90*(24/12)*30</f>
+        <v>124698.089393805</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
@@ -13956,16 +13956,16 @@
         <v>1.68232677201937</v>
       </c>
       <c r="C91">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.594414840583947</v>
       </c>
       <c r="D91">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.47510917125020835</v>
       </c>
       <c r="E91">
-        <f t="shared" si="5"/>
-        <v>374061.0254758434</v>
+        <f>A91*(24/12)*30</f>
+        <v>124687.0084919478</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
@@ -13976,16 +13976,16 @@
         <v>1.68815182755843</v>
       </c>
       <c r="C92">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.59236378131124479</v>
       </c>
       <c r="D92">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.47109891360812206</v>
       </c>
       <c r="E92">
-        <f t="shared" si="5"/>
-        <v>373662.66898990801</v>
+        <f>A92*(24/12)*30</f>
+        <v>124554.222996636</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
@@ -13996,16 +13996,16 @@
         <v>1.68968470235096</v>
       </c>
       <c r="C93">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.59182639140227744</v>
       </c>
       <c r="D93">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.47004820190129892</v>
       </c>
       <c r="E93">
-        <f t="shared" si="5"/>
-        <v>373655.54255912104</v>
+        <f>A93*(24/12)*30</f>
+        <v>124551.84751970699</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
@@ -14016,16 +14016,16 @@
         <v>1.69083229112049</v>
       </c>
       <c r="C94">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.59142471151725784</v>
       </c>
       <c r="D94">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.46926283219013987</v>
       </c>
       <c r="E94">
-        <f t="shared" si="5"/>
-        <v>373570.84948229103</v>
+        <f>A94*(24/12)*30</f>
+        <v>124523.616494097</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
@@ -14036,16 +14036,16 @@
         <v>1.7033932732680801</v>
       </c>
       <c r="C95">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.58706349008965464</v>
       </c>
       <c r="D95">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.46073571559646176</v>
       </c>
       <c r="E95">
-        <f t="shared" si="5"/>
-        <v>373544.90061169141</v>
+        <f>A95*(24/12)*30</f>
+        <v>124514.96687056382</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
@@ -14056,16 +14056,16 @@
         <v>1.70596046882345</v>
       </c>
       <c r="C96">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.58618005415428542</v>
       </c>
       <c r="D96">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.45900841021906008</v>
       </c>
       <c r="E96">
-        <f t="shared" si="5"/>
-        <v>373376.67547555082</v>
+        <f>A96*(24/12)*30</f>
+        <v>124458.89182518359</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
@@ -14076,16 +14076,16 @@
         <v>1.7096119707177799</v>
       </c>
       <c r="C97">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.58492805217089727</v>
       </c>
       <c r="D97">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.45656047973328007</v>
       </c>
       <c r="E97">
-        <f t="shared" si="5"/>
-        <v>373200.8583133152</v>
+        <f>A97*(24/12)*30</f>
+        <v>124400.2861044384</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
@@ -14096,16 +14096,16 @@
         <v>1.7182444137989901</v>
       </c>
       <c r="C98">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.58198937937416495</v>
       </c>
       <c r="D98">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.45081474863836113</v>
       </c>
       <c r="E98">
-        <f t="shared" si="5"/>
-        <v>372966.45462618303</v>
+        <f>A98*(24/12)*30</f>
+        <v>124322.15154206099</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
@@ -14116,16 +14116,16 @@
         <v>1.7278642025895301</v>
       </c>
       <c r="C99">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.57874918555596644</v>
       </c>
       <c r="D99">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.44447947973891472</v>
       </c>
       <c r="E99">
-        <f t="shared" si="5"/>
-        <v>372836.87720737199</v>
+        <f>A99*(24/12)*30</f>
+        <v>124278.95906912399</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
@@ -14136,16 +14136,16 @@
         <v>1.73427987423589</v>
       </c>
       <c r="C100">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.57660820197235585</v>
       </c>
       <c r="D100">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.44029340092002034</v>
       </c>
       <c r="E100">
-        <f t="shared" si="5"/>
-        <v>372732.48630551877</v>
+        <f>A100*(24/12)*30</f>
+        <v>124244.1621018396</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
@@ -14156,16 +14156,16 @@
         <v>1.7354729471677</v>
       </c>
       <c r="C101">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.5762118053364097</v>
       </c>
       <c r="D101">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.4395183610858443</v>
       </c>
       <c r="E101">
-        <f t="shared" si="5"/>
-        <v>372656.1272563134</v>
+        <f>A101*(24/12)*30</f>
+        <v>124218.70908543779</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
@@ -14176,16 +14176,16 @@
         <v>1.7377953126419801</v>
       </c>
       <c r="C102">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.57544176389778279</v>
       </c>
       <c r="D102">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.43801276609642775</v>
       </c>
       <c r="E102">
-        <f t="shared" si="5"/>
-        <v>372608.08243406104</v>
+        <f>A102*(24/12)*30</f>
+        <v>124202.694144687</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
@@ -14196,16 +14196,16 @@
         <v>1.7388138135747999</v>
       </c>
       <c r="C103">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.57510470194857477</v>
       </c>
       <c r="D103">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.43735373820988255</v>
       </c>
       <c r="E103">
-        <f t="shared" si="5"/>
-        <v>372500.26655975461</v>
+        <f>A103*(24/12)*30</f>
+        <v>124166.75551991821</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
@@ -14216,16 +14216,16 @@
         <v>1.7462938231407801</v>
       </c>
       <c r="C104">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.57264132000504908</v>
       </c>
       <c r="D104">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.43253730194405665</v>
       </c>
       <c r="E104">
-        <f t="shared" si="5"/>
-        <v>372476.08856172062</v>
+        <f>A104*(24/12)*30</f>
+        <v>124158.6961872402</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
@@ -14236,16 +14236,16 @@
         <v>1.7535097183788799</v>
       </c>
       <c r="C105">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.57028483476242164</v>
       </c>
       <c r="D105">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.42792987149166412</v>
       </c>
       <c r="E105">
-        <f t="shared" si="5"/>
-        <v>372228.40390252683</v>
+        <f>A105*(24/12)*30</f>
+        <v>124076.1346341756</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
@@ -14256,16 +14256,16 @@
         <v>1.7704969336963701</v>
       </c>
       <c r="C106">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.56481317813538456</v>
       </c>
       <c r="D106">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.41723161762085387</v>
       </c>
       <c r="E106">
-        <f t="shared" si="5"/>
-        <v>372003.37509885483</v>
+        <f>A106*(24/12)*30</f>
+        <v>124001.1250329516</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
@@ -14276,16 +14276,16 @@
         <v>1.77280625509409</v>
       </c>
       <c r="C107">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.56407743210886063</v>
       </c>
       <c r="D107">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.4157930774651542</v>
       </c>
       <c r="E107">
-        <f t="shared" si="5"/>
-        <v>371902.85494700755</v>
+        <f>A107*(24/12)*30</f>
+        <v>123967.61831566918</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
@@ -14296,16 +14296,16 @@
         <v>1.77843325361807</v>
       </c>
       <c r="C108">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.56229267978743969</v>
       </c>
       <c r="D108">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.41230350662170406</v>
       </c>
       <c r="E108">
-        <f t="shared" si="5"/>
-        <v>371716.34101753682</v>
+        <f>A108*(24/12)*30</f>
+        <v>123905.44700584561</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
@@ -14316,16 +14316,16 @@
         <v>1.78264674676867</v>
       </c>
       <c r="C109">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.56096363556753948</v>
       </c>
       <c r="D109">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.40970494215774123</v>
       </c>
       <c r="E109">
-        <f t="shared" si="5"/>
-        <v>371601.74875539786</v>
+        <f>A109*(24/12)*30</f>
+        <v>123867.24958513261</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
@@ -14336,16 +14336,16 @@
         <v>1.7873946263334901</v>
       </c>
       <c r="C110">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.55947354057526477</v>
       </c>
       <c r="D110">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.40679148913874025</v>
       </c>
       <c r="E110">
-        <f t="shared" si="5"/>
-        <v>371470.80253681977</v>
+        <f>A110*(24/12)*30</f>
+        <v>123823.60084560659</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
@@ -14356,16 +14356,16 @@
         <v>1.79452628789965</v>
       </c>
       <c r="C111">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.55725012597637691</v>
       </c>
       <c r="D111">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.40244424013166052</v>
       </c>
       <c r="E111">
-        <f t="shared" si="5"/>
-        <v>371362.59517825622</v>
+        <f>A111*(24/12)*30</f>
+        <v>123787.53172608541</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
@@ -14376,16 +14376,16 @@
         <v>1.8048591737364099</v>
       </c>
       <c r="C112">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.55405984829819455</v>
       </c>
       <c r="D112">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.39620656791536585</v>
       </c>
       <c r="E112">
-        <f t="shared" si="5"/>
-        <v>371275.95118504495</v>
+        <f>A112*(24/12)*30</f>
+        <v>123758.65039501499</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
@@ -14396,16 +14396,16 @@
         <v>1.81248552399192</v>
       </c>
       <c r="C113">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.55172854445620279</v>
       </c>
       <c r="D113">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.39164837246348333</v>
       </c>
       <c r="E113">
-        <f t="shared" si="5"/>
-        <v>371057.89847986802</v>
+        <f>A113*(24/12)*30</f>
+        <v>123685.96615995599</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
@@ -14416,16 +14416,16 @@
         <v>1.82628901759741</v>
       </c>
       <c r="C114">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.54755845891005706</v>
       </c>
       <c r="D114">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.38349496721959081</v>
       </c>
       <c r="E114">
-        <f t="shared" si="5"/>
-        <v>370958.68918986118</v>
+        <f>A114*(24/12)*30</f>
+        <v>123652.8963966204</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
@@ -14436,16 +14436,16 @@
         <v>1.8369748608079299</v>
       </c>
       <c r="C115">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.54437326352968407</v>
       </c>
       <c r="D115">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.37726723197776618</v>
       </c>
       <c r="E115">
-        <f t="shared" si="5"/>
-        <v>370673.65603883518</v>
+        <f>A115*(24/12)*30</f>
+        <v>123557.8853462784</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
@@ -14456,16 +14456,16 @@
         <v>1.8540693384813101</v>
       </c>
       <c r="C116">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.53935415426216571</v>
       </c>
       <c r="D116">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.36745380456276328</v>
       </c>
       <c r="E116">
-        <f t="shared" si="5"/>
-        <v>370589.11248340621</v>
+        <f>A116*(24/12)*30</f>
+        <v>123529.70416113539</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
@@ -14476,16 +14476,16 @@
         <v>1.86274415778022</v>
       </c>
       <c r="C117">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.53684237624541631</v>
       </c>
       <c r="D117">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.36254274366805644</v>
       </c>
       <c r="E117">
-        <f t="shared" si="5"/>
-        <v>370576.61976986099</v>
+        <f>A117*(24/12)*30</f>
+        <v>123525.53992328701</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
@@ -14496,16 +14496,16 @@
         <v>1.8637029223514101</v>
       </c>
       <c r="C118">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.53656620269624988</v>
       </c>
       <c r="D118">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.36200276556950656</v>
       </c>
       <c r="E118">
-        <f t="shared" si="5"/>
-        <v>370453.89160967758</v>
+        <f>A118*(24/12)*30</f>
+        <v>123484.6305365592</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
@@ -14516,16 +14516,16 @@
         <v>1.8645143023686499</v>
       </c>
       <c r="C119">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.53633270537512934</v>
       </c>
       <c r="D119">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.36154622858449947</v>
       </c>
       <c r="E119">
-        <f t="shared" si="5"/>
-        <v>370118.30211647099</v>
+        <f>A119*(24/12)*30</f>
+        <v>123372.76737215699</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
@@ -14536,16 +14536,16 @@
         <v>1.8731777893577499</v>
       </c>
       <c r="C120">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.53385215524195739</v>
       </c>
       <c r="D120">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.35669622485202551</v>
       </c>
       <c r="E120">
-        <f t="shared" si="5"/>
-        <v>369945.61597749422</v>
+        <f>A120*(24/12)*30</f>
+        <v>123315.20532583141</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
@@ -14556,16 +14556,16 @@
         <v>1.8786776088866799</v>
       </c>
       <c r="C121">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.53228930566357702</v>
       </c>
       <c r="D121">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.35364052112442229</v>
       </c>
       <c r="E121">
-        <f t="shared" si="5"/>
-        <v>369742.9515831882</v>
+        <f>A121*(24/12)*30</f>
+        <v>123247.65052772941</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
@@ -14576,16 +14576,16 @@
         <v>1.88027718631895</v>
       </c>
       <c r="C122">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.53183647989566718</v>
       </c>
       <c r="D122">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.35275515032092447</v>
       </c>
       <c r="E122">
-        <f t="shared" si="5"/>
-        <v>369671.01572346839</v>
+        <f>A122*(24/12)*30</f>
+        <v>123223.67190782281</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
@@ -14596,16 +14596,16 @@
         <v>1.88412980023492</v>
       </c>
       <c r="C123">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.53074899610171045</v>
       </c>
       <c r="D123">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.3506288879288999</v>
       </c>
       <c r="E123">
-        <f t="shared" si="5"/>
-        <v>369644.57072086865</v>
+        <f>A123*(24/12)*30</f>
+        <v>123214.85690695621</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
@@ -14616,16 +14616,16 @@
         <v>1.88491494047403</v>
       </c>
       <c r="C124">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.5305279185428462</v>
       </c>
       <c r="D124">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.35019663422383701</v>
       </c>
       <c r="E124">
-        <f t="shared" si="5"/>
-        <v>369427.9129718616</v>
+        <f>A124*(24/12)*30</f>
+        <v>123142.63765728721</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
@@ -14636,16 +14636,16 @@
         <v>1.8910072022679001</v>
       </c>
       <c r="C125">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.52881871565623439</v>
       </c>
       <c r="D125">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.34685477861335501</v>
       </c>
       <c r="E125">
-        <f t="shared" si="5"/>
-        <v>369345.56482547452</v>
+        <f>A125*(24/12)*30</f>
+        <v>123115.18827515819</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
@@ -14656,16 +14656,16 @@
         <v>1.89382120865102</v>
       </c>
       <c r="C126">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.52803295022358832</v>
       </c>
       <c r="D126">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.34531843986727639</v>
       </c>
       <c r="E126">
-        <f t="shared" si="5"/>
-        <v>369140.90297823003</v>
+        <f>A126*(24/12)*30</f>
+        <v>123046.96765941002</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
@@ -14676,16 +14676,16 @@
         <v>1.9013780523394199</v>
       </c>
       <c r="C127">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.52593433418967828</v>
       </c>
       <c r="D127">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.34121519863002792</v>
       </c>
       <c r="E127">
-        <f t="shared" si="5"/>
-        <v>368969.56001438404</v>
+        <f>A127*(24/12)*30</f>
+        <v>122989.853338128</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
@@ -14696,16 +14696,16 @@
         <v>1.9223855101424501</v>
       </c>
       <c r="C128">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.52018702529957128</v>
       </c>
       <c r="D128">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.32997798588599209</v>
       </c>
       <c r="E128">
-        <f t="shared" si="5"/>
-        <v>368681.73424930259</v>
+        <f>A128*(24/12)*30</f>
+        <v>122893.91141643422</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
@@ -14716,16 +14716,16 @@
         <v>1.9246702305916601</v>
       </c>
       <c r="C129">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.51956952630404196</v>
       </c>
       <c r="D129">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.32877064385606641</v>
       </c>
       <c r="E129">
-        <f t="shared" si="5"/>
-        <v>368479.15780612139</v>
+        <f>A129*(24/12)*30</f>
+        <v>122826.38593537379</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
@@ -14736,16 +14736,16 @@
         <v>1.9379749183541599</v>
       </c>
       <c r="C130">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.51600255015129792</v>
       </c>
       <c r="D130">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0.32179644590573819</v>
       </c>
       <c r="E130">
-        <f t="shared" si="5"/>
-        <v>368260.56395136</v>
+        <f>A130*(24/12)*30</f>
+        <v>122753.52131712</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
@@ -14756,16 +14756,16 @@
         <v>1.9426298651276399</v>
       </c>
       <c r="C131">
-        <f t="shared" ref="C131:C162" si="6">1/B131</f>
+        <f t="shared" ref="C131:C157" si="4">1/B131</f>
         <v>0.51476610030099346</v>
       </c>
       <c r="D131">
-        <f t="shared" ref="D131:D162" si="7">(C131-MIN(C:C))/(MAX(C:C)-MIN(C:C))</f>
+        <f t="shared" ref="D131:D157" si="5">(C131-MIN(C:C))/(MAX(C:C)-MIN(C:C))</f>
         <v>0.31937892315189437</v>
       </c>
       <c r="E131">
-        <f t="shared" ref="E131:E162" si="8">A131*(24/4)*30</f>
-        <v>368128.1452755708</v>
+        <f>A131*(24/12)*30</f>
+        <v>122709.3817585236</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
@@ -14776,16 +14776,16 @@
         <v>1.95204656832374</v>
       </c>
       <c r="C132">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0.51228286057679417</v>
       </c>
       <c r="D132">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0.31452366069622556</v>
       </c>
       <c r="E132">
-        <f t="shared" si="8"/>
-        <v>368019.19579708442</v>
+        <f>A132*(24/12)*30</f>
+        <v>122673.06526569479</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
@@ -14796,16 +14796,16 @@
         <v>1.95829088061565</v>
       </c>
       <c r="C133">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0.51064936772090708</v>
       </c>
       <c r="D133">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0.31132983431792483</v>
       </c>
       <c r="E133">
-        <f t="shared" si="8"/>
-        <v>367917.76958423579</v>
+        <f>A133*(24/12)*30</f>
+        <v>122639.25652807859</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
@@ -14816,16 +14816,16 @@
         <v>1.9725390691042901</v>
       </c>
       <c r="C134">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0.50696080785567899</v>
       </c>
       <c r="D134">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0.30411791431897922</v>
       </c>
       <c r="E134">
-        <f t="shared" si="8"/>
-        <v>367872.5607885936</v>
+        <f>A134*(24/12)*30</f>
+        <v>122624.18692953121</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
@@ -14836,16 +14836,16 @@
         <v>1.9780124570245301</v>
       </c>
       <c r="C135">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0.50555798900491888</v>
       </c>
       <c r="D135">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0.30137510474170565</v>
       </c>
       <c r="E135">
-        <f t="shared" si="8"/>
-        <v>367602.80228435522</v>
+        <f>A135*(24/12)*30</f>
+        <v>122534.2674281184</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
@@ -14856,16 +14856,16 @@
         <v>1.99750942631211</v>
       </c>
       <c r="C136">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0.50062341975839586</v>
       </c>
       <c r="D136">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0.29172697107017026</v>
       </c>
       <c r="E136">
-        <f t="shared" si="8"/>
-        <v>367444.50868335424</v>
+        <f>A136*(24/12)*30</f>
+        <v>122481.50289445139</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
@@ -14876,16 +14876,16 @@
         <v>2.0039188653374902</v>
       </c>
       <c r="C137">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0.49902219959967536</v>
       </c>
       <c r="D137">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0.28859624468715761</v>
       </c>
       <c r="E137">
-        <f t="shared" si="8"/>
-        <v>367227.826142409</v>
+        <f>A137*(24/12)*30</f>
+        <v>122409.27538080301</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
@@ -14896,16 +14896,16 @@
         <v>2.01432244362196</v>
       </c>
       <c r="C138">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0.49644484832423186</v>
       </c>
       <c r="D138">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0.28355697410816988</v>
       </c>
       <c r="E138">
-        <f t="shared" si="8"/>
-        <v>366762.50216443441</v>
+        <f>A138*(24/12)*30</f>
+        <v>122254.16738814481</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
@@ -14916,16 +14916,16 @@
         <v>2.0211988352069201</v>
       </c>
       <c r="C139">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0.49475587585999425</v>
       </c>
       <c r="D139">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0.28025467328140796</v>
       </c>
       <c r="E139">
-        <f t="shared" si="8"/>
-        <v>366686.68492332718</v>
+        <f>A139*(24/12)*30</f>
+        <v>122228.8949744424</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
@@ -14936,16 +14936,16 @@
         <v>2.0212862171483699</v>
       </c>
       <c r="C140">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0.49473448713799661</v>
       </c>
       <c r="D140">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0.28021285377526933</v>
       </c>
       <c r="E140">
-        <f t="shared" si="8"/>
-        <v>366632.85429753124</v>
+        <f>A140*(24/12)*30</f>
+        <v>122210.9514325104</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
@@ -14956,16 +14956,16 @@
         <v>2.0291728976950698</v>
       </c>
       <c r="C141">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0.49281162839100423</v>
       </c>
       <c r="D141">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0.27645325546067773</v>
       </c>
       <c r="E141">
-        <f t="shared" si="8"/>
-        <v>366438.58985343238</v>
+        <f>A141*(24/12)*30</f>
+        <v>122146.1966178108</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
@@ -14976,16 +14976,16 @@
         <v>2.0378798265460101</v>
       </c>
       <c r="C142">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0.49070606959925295</v>
       </c>
       <c r="D142">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0.27233643965342019</v>
       </c>
       <c r="E142">
-        <f t="shared" si="8"/>
-        <v>366286.29824404075</v>
+        <f>A142*(24/12)*30</f>
+        <v>122095.4327480136</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
@@ -14996,16 +14996,16 @@
         <v>2.0433741943064399</v>
       </c>
       <c r="C143">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0.48938662472412159</v>
       </c>
       <c r="D143">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0.26975664395261822</v>
       </c>
       <c r="E143">
-        <f t="shared" si="8"/>
-        <v>365831.33653555921</v>
+        <f>A143*(24/12)*30</f>
+        <v>121943.7788451864</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
@@ -15016,16 +15016,16 @@
         <v>2.0567566074561499</v>
       </c>
       <c r="C144">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0.48620240060238634</v>
       </c>
       <c r="D144">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0.26353080772825555</v>
       </c>
       <c r="E144">
-        <f t="shared" si="8"/>
-        <v>365596.13214047696</v>
+        <f>A144*(24/12)*30</f>
+        <v>121865.377380159</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
@@ -15036,16 +15036,16 @@
         <v>2.0623287441399398</v>
       </c>
       <c r="C145">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0.48488874668574405</v>
       </c>
       <c r="D145">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0.26096233458445861</v>
       </c>
       <c r="E145">
-        <f t="shared" si="8"/>
-        <v>365543.16625635483</v>
+        <f>A145*(24/12)*30</f>
+        <v>121847.72208545159</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
@@ -15056,16 +15056,16 @@
         <v>2.0714240042169298</v>
       </c>
       <c r="C146">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0.48275968510755707</v>
       </c>
       <c r="D146">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0.25679956582490537</v>
       </c>
       <c r="E146">
-        <f t="shared" si="8"/>
-        <v>365066.89387082099</v>
+        <f>A146*(24/12)*30</f>
+        <v>121688.964623607</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
@@ -15076,16 +15076,16 @@
         <v>2.0848317467722302</v>
       </c>
       <c r="C147">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0.47965501367111085</v>
       </c>
       <c r="D147">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0.25072927204067341</v>
       </c>
       <c r="E147">
-        <f t="shared" si="8"/>
-        <v>364835.93644462503</v>
+        <f>A147*(24/12)*30</f>
+        <v>121611.97881487501</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
@@ -15096,16 +15096,16 @@
         <v>2.0919042166961002</v>
       </c>
       <c r="C148">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0.47803335928036628</v>
       </c>
       <c r="D148">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0.24755859238267483</v>
       </c>
       <c r="E148">
-        <f t="shared" si="8"/>
-        <v>364610.67065393226</v>
+        <f>A148*(24/12)*30</f>
+        <v>121536.8902179774</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
@@ -15116,16 +15116,16 @@
         <v>2.1068402399449901</v>
       </c>
       <c r="C149">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0.47464443721945909</v>
       </c>
       <c r="D149">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0.24093252809771493</v>
       </c>
       <c r="E149">
-        <f t="shared" si="8"/>
-        <v>364231.25878269423</v>
+        <f>A149*(24/12)*30</f>
+        <v>121410.4195942314</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
@@ -15136,16 +15136,16 @@
         <v>2.2169936393906999</v>
       </c>
       <c r="C150">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0.45106128508101251</v>
       </c>
       <c r="D150">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0.1948224437396503</v>
       </c>
       <c r="E150">
-        <f t="shared" si="8"/>
-        <v>363997.9902333924</v>
+        <f>A150*(24/12)*30</f>
+        <v>121332.66341113081</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
@@ -15156,16 +15156,16 @@
         <v>2.22536325358872</v>
       </c>
       <c r="C151">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0.44936483892566997</v>
       </c>
       <c r="D151">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0.19150553025528894</v>
       </c>
       <c r="E151">
-        <f t="shared" si="8"/>
-        <v>363768.0866933004</v>
+        <f>A151*(24/12)*30</f>
+        <v>121256.0288977668</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
@@ -15176,16 +15176,16 @@
         <v>2.2378136969671298</v>
       </c>
       <c r="C152">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0.44686472397379762</v>
       </c>
       <c r="D152">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0.18661727313601453</v>
       </c>
       <c r="E152">
-        <f t="shared" si="8"/>
-        <v>363464.22720357357</v>
+        <f>A152*(24/12)*30</f>
+        <v>121154.74240119119</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
@@ -15196,16 +15196,16 @@
         <v>2.24501206196783</v>
       </c>
       <c r="C153">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0.4454319052181242</v>
       </c>
       <c r="D153">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0.18381580735628902</v>
       </c>
       <c r="E153">
-        <f t="shared" si="8"/>
-        <v>363224.83870467002</v>
+        <f>A153*(24/12)*30</f>
+        <v>121074.94623489</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
@@ -15216,16 +15216,16 @@
         <v>2.2600931194641598</v>
       </c>
       <c r="C154">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0.44245964530748522</v>
       </c>
       <c r="D154">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0.17800440630145595</v>
       </c>
       <c r="E154">
-        <f t="shared" si="8"/>
-        <v>363156.40645232581</v>
+        <f>A154*(24/12)*30</f>
+        <v>121052.1354841086</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
@@ -15236,16 +15236,16 @@
         <v>2.8330178376492001</v>
       </c>
       <c r="C155">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0.35298048134768767</v>
       </c>
       <c r="D155">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>3.0535865698941961E-3</v>
       </c>
       <c r="E155">
-        <f t="shared" si="8"/>
-        <v>363111.16388377675</v>
+        <f>A155*(24/12)*30</f>
+        <v>121037.05462792559</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
@@ -15256,16 +15256,16 @@
         <v>2.8397122922985401</v>
       </c>
       <c r="C156">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0.35214835063117361</v>
       </c>
       <c r="D156">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>1.4265938205726316E-3</v>
       </c>
       <c r="E156">
-        <f t="shared" si="8"/>
-        <v>362921.50132698962</v>
+        <f>A156*(24/12)*30</f>
+        <v>120973.8337756632</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
@@ -15276,16 +15276,16 @@
         <v>2.8456082686098698</v>
       </c>
       <c r="C157">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v>0.35141871459648161</v>
       </c>
       <c r="D157">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="E157">
-        <f t="shared" si="8"/>
-        <v>362675.10081146221</v>
+        <f>A157*(24/12)*30</f>
+        <v>120891.7002704874</v>
       </c>
     </row>
   </sheetData>
